--- a/Tema12/Tema12.xlsx
+++ b/Tema12/Tema12.xlsx
@@ -38516,16 +38516,16 @@
         <v>112</v>
       </c>
       <c r="J2" t="n">
-        <v>7.89506981203415</v>
+        <v>8.03642316968377</v>
       </c>
       <c r="K2" t="n">
-        <v>0.217439001684599</v>
+        <v>0.23798200801325</v>
       </c>
       <c r="L2" t="n">
-        <v>7.46889719989799</v>
+        <v>7.56998700500928</v>
       </c>
       <c r="M2" t="n">
-        <v>8.32124242417031</v>
+        <v>8.50285933435826</v>
       </c>
     </row>
     <row r="3">
@@ -38557,16 +38557,16 @@
         <v>112</v>
       </c>
       <c r="J3" t="n">
-        <v>6.8852881191321</v>
+        <v>7.00013474439097</v>
       </c>
       <c r="K3" t="n">
-        <v>0.272799920204179</v>
+        <v>0.285062718813647</v>
       </c>
       <c r="L3" t="n">
-        <v>6.35061010054651</v>
+        <v>6.44142208218116</v>
       </c>
       <c r="M3" t="n">
-        <v>7.4199661377177</v>
+        <v>7.55884740660079</v>
       </c>
     </row>
     <row r="4">
@@ -38598,16 +38598,16 @@
         <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>9.75773382171406</v>
+        <v>9.93595932456072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.39169260276061</v>
+        <v>0.446587999699552</v>
       </c>
       <c r="L4" t="n">
-        <v>8.99003042729251</v>
+        <v>9.06066292922181</v>
       </c>
       <c r="M4" t="n">
-        <v>10.5254372161356</v>
+        <v>10.8112557198996</v>
       </c>
     </row>
     <row r="5">
@@ -38639,16 +38639,16 @@
         <v>112</v>
       </c>
       <c r="J5" t="n">
-        <v>8.61351546789725</v>
+        <v>9.14462813799123</v>
       </c>
       <c r="K5" t="n">
-        <v>0.612019297198032</v>
+        <v>0.755769006413032</v>
       </c>
       <c r="L5" t="n">
-        <v>7.4139796875456</v>
+        <v>7.66334810479006</v>
       </c>
       <c r="M5" t="n">
-        <v>9.81305124824891</v>
+        <v>10.6259081711924</v>
       </c>
     </row>
     <row r="6">
@@ -38680,16 +38680,16 @@
         <v>112</v>
       </c>
       <c r="J6" t="n">
-        <v>7.41538276796836</v>
+        <v>7.48447565398744</v>
       </c>
       <c r="K6" t="n">
-        <v>0.348192840691331</v>
+        <v>0.348142991201917</v>
       </c>
       <c r="L6" t="n">
-        <v>6.73293734053866</v>
+        <v>6.80212792976164</v>
       </c>
       <c r="M6" t="n">
-        <v>8.09782819539806</v>
+        <v>8.16682337821324</v>
       </c>
     </row>
     <row r="7">
@@ -38721,16 +38721,16 @@
         <v>112</v>
       </c>
       <c r="J7" t="n">
-        <v>7.82953260523082</v>
+        <v>7.87471387234343</v>
       </c>
       <c r="K7" t="n">
-        <v>0.398829890217103</v>
+        <v>0.449415824915657</v>
       </c>
       <c r="L7" t="n">
-        <v>7.04784038444723</v>
+        <v>6.99387504142639</v>
       </c>
       <c r="M7" t="n">
-        <v>8.61122482601441</v>
+        <v>8.75555270326048</v>
       </c>
     </row>
     <row r="8">
@@ -38762,16 +38762,16 @@
         <v>112</v>
       </c>
       <c r="J8" t="n">
-        <v>8.19112518959447</v>
+        <v>8.40133887483118</v>
       </c>
       <c r="K8" t="n">
-        <v>0.621591659974859</v>
+        <v>0.643648529275993</v>
       </c>
       <c r="L8" t="n">
-        <v>6.97282792295328</v>
+        <v>7.13981093874806</v>
       </c>
       <c r="M8" t="n">
-        <v>9.40942245623566</v>
+        <v>9.6628668109143</v>
       </c>
     </row>
     <row r="9">
@@ -38803,16 +38803,16 @@
         <v>112</v>
       </c>
       <c r="J9" t="n">
-        <v>8.43612122824843</v>
+        <v>8.67256132284468</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465205871092399</v>
+        <v>0.451635208695565</v>
       </c>
       <c r="L9" t="n">
-        <v>7.52433447551075</v>
+        <v>7.78737257965114</v>
       </c>
       <c r="M9" t="n">
-        <v>9.34790798098612</v>
+        <v>9.55775006603822</v>
       </c>
     </row>
     <row r="10">
@@ -38844,16 +38844,16 @@
         <v>112</v>
       </c>
       <c r="J10" t="n">
-        <v>7.35107788444641</v>
+        <v>8.22211334900033</v>
       </c>
       <c r="K10" t="n">
-        <v>0.661156759384344</v>
+        <v>0.894305235240823</v>
       </c>
       <c r="L10" t="n">
-        <v>6.05523444791789</v>
+        <v>6.4693072967427</v>
       </c>
       <c r="M10" t="n">
-        <v>8.64692132097494</v>
+        <v>9.97491940125797</v>
       </c>
     </row>
     <row r="11">
@@ -38885,16 +38885,16 @@
         <v>112</v>
       </c>
       <c r="J11" t="n">
-        <v>6.84369869860202</v>
+        <v>6.51499795265985</v>
       </c>
       <c r="K11" t="n">
-        <v>0.43355864820571</v>
+        <v>0.411553024867299</v>
       </c>
       <c r="L11" t="n">
-        <v>5.99393936293296</v>
+        <v>5.70836884619142</v>
       </c>
       <c r="M11" t="n">
-        <v>7.69345803427109</v>
+        <v>7.32162705912827</v>
       </c>
     </row>
     <row r="12">
@@ -38926,16 +38926,16 @@
         <v>112</v>
       </c>
       <c r="J12" t="n">
-        <v>6.52617158095201</v>
+        <v>6.75828640911408</v>
       </c>
       <c r="K12" t="n">
-        <v>0.514663083709389</v>
+        <v>0.550178511824862</v>
       </c>
       <c r="L12" t="n">
-        <v>5.51745047270929</v>
+        <v>5.67995634086951</v>
       </c>
       <c r="M12" t="n">
-        <v>7.53489268919474</v>
+        <v>7.83661647735865</v>
       </c>
     </row>
     <row r="13">
@@ -38967,16 +38967,16 @@
         <v>112</v>
       </c>
       <c r="J13" t="n">
-        <v>7.41177857601095</v>
+        <v>7.58619480302912</v>
       </c>
       <c r="K13" t="n">
-        <v>0.769415314619529</v>
+        <v>0.692166448690154</v>
       </c>
       <c r="L13" t="n">
-        <v>5.90375227020311</v>
+        <v>6.22957349228942</v>
       </c>
       <c r="M13" t="n">
-        <v>8.91980488181878</v>
+        <v>8.94281611376881</v>
       </c>
     </row>
     <row r="14">
@@ -39008,16 +39008,16 @@
         <v>112</v>
       </c>
       <c r="J14" t="n">
-        <v>7.33288190391219</v>
+        <v>7.34977745279269</v>
       </c>
       <c r="K14" t="n">
-        <v>0.500560053762657</v>
+        <v>0.534987314538088</v>
       </c>
       <c r="L14" t="n">
-        <v>6.35180222643795</v>
+        <v>6.30122158411223</v>
       </c>
       <c r="M14" t="n">
-        <v>8.31396158138643</v>
+        <v>8.39833332147314</v>
       </c>
     </row>
     <row r="15">
@@ -39049,16 +39049,16 @@
         <v>112</v>
       </c>
       <c r="J15" t="n">
-        <v>10.8085234774091</v>
+        <v>10.7232790430502</v>
       </c>
       <c r="K15" t="n">
-        <v>1.02722374136793</v>
+        <v>1.17082927312661</v>
       </c>
       <c r="L15" t="n">
-        <v>8.79520194026342</v>
+        <v>8.4284958356768</v>
       </c>
       <c r="M15" t="n">
-        <v>12.8218450145547</v>
+        <v>13.0180622504235</v>
       </c>
     </row>
     <row r="16">
@@ -39090,16 +39090,16 @@
         <v>112</v>
       </c>
       <c r="J16" t="n">
-        <v>8.44216907116323</v>
+        <v>9.20167346376</v>
       </c>
       <c r="K16" t="n">
-        <v>0.616507613770275</v>
+        <v>0.576066952591836</v>
       </c>
       <c r="L16" t="n">
-        <v>7.23383635197876</v>
+        <v>8.07260298399626</v>
       </c>
       <c r="M16" t="n">
-        <v>9.6505017903477</v>
+        <v>10.3307439435237</v>
       </c>
     </row>
     <row r="17">
@@ -39131,16 +39131,16 @@
         <v>112</v>
       </c>
       <c r="J17" t="n">
-        <v>10.3856007791147</v>
+        <v>10.0575783385805</v>
       </c>
       <c r="K17" t="n">
-        <v>0.75810646956513</v>
+        <v>0.900650386889985</v>
       </c>
       <c r="L17" t="n">
-        <v>8.89973940232025</v>
+        <v>8.2923360176141</v>
       </c>
       <c r="M17" t="n">
-        <v>11.8714621559092</v>
+        <v>11.822820659547</v>
       </c>
     </row>
     <row r="18">
@@ -39172,16 +39172,16 @@
         <v>112</v>
       </c>
       <c r="J18" t="n">
-        <v>9.54991563457068</v>
+        <v>9.8088152076577</v>
       </c>
       <c r="K18" t="n">
-        <v>0.99329499615618</v>
+        <v>1.29235671410097</v>
       </c>
       <c r="L18" t="n">
-        <v>7.60309321608071</v>
+        <v>7.27584259284126</v>
       </c>
       <c r="M18" t="n">
-        <v>11.4967380530606</v>
+        <v>12.3417878224741</v>
       </c>
     </row>
     <row r="19">
@@ -39213,16 +39213,16 @@
         <v>112</v>
       </c>
       <c r="J19" t="n">
-        <v>10.4588891902762</v>
+        <v>11.1296094191628</v>
       </c>
       <c r="K19" t="n">
-        <v>0.938340552245322</v>
+        <v>0.843177494429373</v>
       </c>
       <c r="L19" t="n">
-        <v>8.61977550264192</v>
+        <v>9.47701189750655</v>
       </c>
       <c r="M19" t="n">
-        <v>12.2980028779104</v>
+        <v>12.7822069408191</v>
       </c>
     </row>
     <row r="20">
@@ -39254,16 +39254,16 @@
         <v>120</v>
       </c>
       <c r="J20" t="n">
-        <v>24.677171504634</v>
+        <v>27.0177889682099</v>
       </c>
       <c r="K20" t="n">
-        <v>0.420873895475597</v>
+        <v>0.400835067951796</v>
       </c>
       <c r="L20" t="n">
-        <v>23.8522738274688</v>
+        <v>26.2321666712838</v>
       </c>
       <c r="M20" t="n">
-        <v>25.5020691817993</v>
+        <v>27.8034112651361</v>
       </c>
     </row>
     <row r="21">
@@ -39295,16 +39295,16 @@
         <v>120</v>
       </c>
       <c r="J21" t="n">
-        <v>25.2150158461557</v>
+        <v>26.4805970604799</v>
       </c>
       <c r="K21" t="n">
-        <v>0.546304720291674</v>
+        <v>0.508268985523951</v>
       </c>
       <c r="L21" t="n">
-        <v>24.1442782697998</v>
+        <v>25.4844081543943</v>
       </c>
       <c r="M21" t="n">
-        <v>26.2857534225116</v>
+        <v>27.4767859665656</v>
       </c>
     </row>
     <row r="22">
@@ -39336,16 +39336,16 @@
         <v>120</v>
       </c>
       <c r="J22" t="n">
-        <v>23.6915212415817</v>
+        <v>27.989747548702</v>
       </c>
       <c r="K22" t="n">
-        <v>0.558394850188923</v>
+        <v>0.574730897983177</v>
       </c>
       <c r="L22" t="n">
-        <v>22.5970874460588</v>
+        <v>26.8632956878526</v>
       </c>
       <c r="M22" t="n">
-        <v>24.7859550371046</v>
+        <v>29.1161994095514</v>
       </c>
     </row>
     <row r="23">
@@ -39377,16 +39377,16 @@
         <v>120</v>
       </c>
       <c r="J23" t="n">
-        <v>23.5173067594454</v>
+        <v>24.5136806970619</v>
       </c>
       <c r="K23" t="n">
-        <v>0.778243507998037</v>
+        <v>0.908592621924154</v>
       </c>
       <c r="L23" t="n">
-        <v>21.9919775125671</v>
+        <v>22.7328718814718</v>
       </c>
       <c r="M23" t="n">
-        <v>25.0426360063237</v>
+        <v>26.2944895126521</v>
       </c>
     </row>
     <row r="24">
@@ -39418,16 +39418,16 @@
         <v>120</v>
       </c>
       <c r="J24" t="n">
-        <v>21.8713102080079</v>
+        <v>23.5663393383344</v>
       </c>
       <c r="K24" t="n">
-        <v>0.608585859247985</v>
+        <v>0.640854720805895</v>
       </c>
       <c r="L24" t="n">
-        <v>20.6785038423815</v>
+        <v>22.3102871662323</v>
       </c>
       <c r="M24" t="n">
-        <v>23.0641165736343</v>
+        <v>24.8223915104364</v>
       </c>
     </row>
     <row r="25">
@@ -39459,16 +39459,16 @@
         <v>120</v>
       </c>
       <c r="J25" t="n">
-        <v>26.2094521471388</v>
+        <v>28.9419631473397</v>
       </c>
       <c r="K25" t="n">
-        <v>0.858480838008951</v>
+        <v>0.770562654306772</v>
       </c>
       <c r="L25" t="n">
-        <v>24.5268606232234</v>
+        <v>27.4316880970668</v>
       </c>
       <c r="M25" t="n">
-        <v>27.8920436710541</v>
+        <v>30.4522381976126</v>
       </c>
     </row>
     <row r="26">
@@ -39500,16 +39500,16 @@
         <v>120</v>
       </c>
       <c r="J26" t="n">
-        <v>25.307685540353</v>
+        <v>29.0821973292055</v>
       </c>
       <c r="K26" t="n">
-        <v>1.14921559447237</v>
+        <v>1.10915861876512</v>
       </c>
       <c r="L26" t="n">
-        <v>23.0552643647154</v>
+        <v>26.9082863832836</v>
       </c>
       <c r="M26" t="n">
-        <v>27.5601067159907</v>
+        <v>31.2561082751273</v>
       </c>
     </row>
     <row r="27">
@@ -39541,16 +39541,16 @@
         <v>120</v>
       </c>
       <c r="J27" t="n">
-        <v>27.8692853089065</v>
+        <v>30.1754896013449</v>
       </c>
       <c r="K27" t="n">
-        <v>0.861498946337026</v>
+        <v>0.9138314020268</v>
       </c>
       <c r="L27" t="n">
-        <v>26.1807784013667</v>
+        <v>28.3844129654306</v>
       </c>
       <c r="M27" t="n">
-        <v>29.5577922164463</v>
+        <v>31.9665662372591</v>
       </c>
     </row>
     <row r="28">
@@ -39582,16 +39582,16 @@
         <v>120</v>
       </c>
       <c r="J28" t="n">
-        <v>23.7166817347459</v>
+        <v>23.9672258131512</v>
       </c>
       <c r="K28" t="n">
-        <v>1.04832020395932</v>
+        <v>1.11371244007915</v>
       </c>
       <c r="L28" t="n">
-        <v>21.66201189072</v>
+        <v>21.7843895414618</v>
       </c>
       <c r="M28" t="n">
-        <v>25.7713515787718</v>
+        <v>26.1500620848405</v>
       </c>
     </row>
     <row r="29">
@@ -39623,16 +39623,16 @@
         <v>120</v>
       </c>
       <c r="J29" t="n">
-        <v>22.1517427917965</v>
+        <v>22.7041817617495</v>
       </c>
       <c r="K29" t="n">
-        <v>0.778903939104472</v>
+        <v>0.784075730963548</v>
       </c>
       <c r="L29" t="n">
-        <v>20.6251191237354</v>
+        <v>21.167421567909</v>
       </c>
       <c r="M29" t="n">
-        <v>23.6783664598577</v>
+        <v>24.24094195559</v>
       </c>
     </row>
     <row r="30">
@@ -39664,16 +39664,16 @@
         <v>120</v>
       </c>
       <c r="J30" t="n">
-        <v>26.8144730822985</v>
+        <v>28.5011797598551</v>
       </c>
       <c r="K30" t="n">
-        <v>1.13337800974173</v>
+        <v>0.977411181962272</v>
       </c>
       <c r="L30" t="n">
-        <v>24.593093002335</v>
+        <v>26.5854890451224</v>
       </c>
       <c r="M30" t="n">
-        <v>29.035853162262</v>
+        <v>30.4168704745879</v>
       </c>
     </row>
     <row r="31">
@@ -39705,16 +39705,16 @@
         <v>120</v>
       </c>
       <c r="J31" t="n">
-        <v>26.5397372333397</v>
+        <v>29.3136800200119</v>
       </c>
       <c r="K31" t="n">
-        <v>1.48441145683026</v>
+        <v>1.52039825500825</v>
       </c>
       <c r="L31" t="n">
-        <v>23.6303442397137</v>
+        <v>26.3337541980382</v>
       </c>
       <c r="M31" t="n">
-        <v>29.4491302269656</v>
+        <v>32.2936058419856</v>
       </c>
     </row>
     <row r="32">
@@ -39746,16 +39746,16 @@
         <v>120</v>
       </c>
       <c r="J32" t="n">
-        <v>28.4843913941671</v>
+        <v>29.2749164626559</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0528665377222</v>
+        <v>1.07004589698993</v>
       </c>
       <c r="L32" t="n">
-        <v>26.4208108997042</v>
+        <v>27.1776650427508</v>
       </c>
       <c r="M32" t="n">
-        <v>30.54797188863</v>
+        <v>31.372167882561</v>
       </c>
     </row>
     <row r="33">
@@ -39787,16 +39787,16 @@
         <v>120</v>
       </c>
       <c r="J33" t="n">
-        <v>23.1811641716249</v>
+        <v>25.5221645174532</v>
       </c>
       <c r="K33" t="n">
-        <v>0.994089628498876</v>
+        <v>1.4071974877425</v>
       </c>
       <c r="L33" t="n">
-        <v>21.2327843023623</v>
+        <v>22.7641081223427</v>
       </c>
       <c r="M33" t="n">
-        <v>25.1295440408875</v>
+        <v>28.2802209125637</v>
       </c>
     </row>
     <row r="34">
@@ -39828,16 +39828,16 @@
         <v>120</v>
       </c>
       <c r="J34" t="n">
-        <v>21.3488857827769</v>
+        <v>25.2253111075278</v>
       </c>
       <c r="K34" t="n">
-        <v>0.798661136800336</v>
+        <v>0.880341499690965</v>
       </c>
       <c r="L34" t="n">
-        <v>19.7835387187964</v>
+        <v>23.4998734740376</v>
       </c>
       <c r="M34" t="n">
-        <v>22.9142328467573</v>
+        <v>26.9507487410181</v>
       </c>
     </row>
     <row r="35">
@@ -39869,16 +39869,16 @@
         <v>120</v>
       </c>
       <c r="J35" t="n">
-        <v>25.1703791911197</v>
+        <v>29.6946194984482</v>
       </c>
       <c r="K35" t="n">
-        <v>1.08045999097408</v>
+        <v>1.08703922597017</v>
       </c>
       <c r="L35" t="n">
-        <v>23.052716522074</v>
+        <v>27.5640617657643</v>
       </c>
       <c r="M35" t="n">
-        <v>27.2880418601654</v>
+        <v>31.825177231132</v>
       </c>
     </row>
     <row r="36">
@@ -39910,16 +39910,16 @@
         <v>120</v>
       </c>
       <c r="J36" t="n">
-        <v>22.8388529033726</v>
+        <v>28.5475726351908</v>
       </c>
       <c r="K36" t="n">
-        <v>1.68067479858018</v>
+        <v>1.62780861926682</v>
       </c>
       <c r="L36" t="n">
-        <v>19.5447908284313</v>
+        <v>25.3571263677039</v>
       </c>
       <c r="M36" t="n">
-        <v>26.1329149783138</v>
+        <v>31.7380189026776</v>
       </c>
     </row>
     <row r="37">
@@ -39951,16 +39951,16 @@
         <v>120</v>
       </c>
       <c r="J37" t="n">
-        <v>26.6894732715873</v>
+        <v>31.8767036480742</v>
       </c>
       <c r="K37" t="n">
-        <v>1.45048278822433</v>
+        <v>1.44663326841317</v>
       </c>
       <c r="L37" t="n">
-        <v>23.8465792464723</v>
+        <v>29.0413545431469</v>
       </c>
       <c r="M37" t="n">
-        <v>29.5323672967022</v>
+        <v>34.7120527530015</v>
       </c>
     </row>
     <row r="38">
@@ -39992,16 +39992,16 @@
         <v>122</v>
       </c>
       <c r="J38" t="n">
-        <v>16.9692445147553</v>
+        <v>18.0037151647453</v>
       </c>
       <c r="K38" t="n">
-        <v>0.291019167794471</v>
+        <v>0.310441507245326</v>
       </c>
       <c r="L38" t="n">
-        <v>16.3988574270673</v>
+        <v>17.3952609912382</v>
       </c>
       <c r="M38" t="n">
-        <v>17.5396316024433</v>
+        <v>18.6121693382525</v>
       </c>
     </row>
     <row r="39">
@@ -40033,16 +40033,16 @@
         <v>122</v>
       </c>
       <c r="J39" t="n">
-        <v>16.7865658400589</v>
+        <v>17.2391402625806</v>
       </c>
       <c r="K39" t="n">
-        <v>0.381950083780974</v>
+        <v>0.389720361413959</v>
       </c>
       <c r="L39" t="n">
-        <v>16.0379574319561</v>
+        <v>16.4753023901674</v>
       </c>
       <c r="M39" t="n">
-        <v>17.5351742481616</v>
+        <v>18.0029781349939</v>
       </c>
     </row>
     <row r="40">
@@ -40074,16 +40074,16 @@
         <v>122</v>
       </c>
       <c r="J40" t="n">
-        <v>17.290812336826</v>
+        <v>19.3462422692053</v>
       </c>
       <c r="K40" t="n">
-        <v>0.373601745967531</v>
+        <v>0.432354964077384</v>
       </c>
       <c r="L40" t="n">
-        <v>16.5585663701684</v>
+        <v>18.4988421110765</v>
       </c>
       <c r="M40" t="n">
-        <v>18.0230583034837</v>
+        <v>20.1936424273341</v>
       </c>
     </row>
     <row r="41">
@@ -40115,16 +40115,16 @@
         <v>122</v>
       </c>
       <c r="J41" t="n">
-        <v>16.5153018899174</v>
+        <v>17.2346155055521</v>
       </c>
       <c r="K41" t="n">
-        <v>0.586324481576576</v>
+        <v>0.759448875088263</v>
       </c>
       <c r="L41" t="n">
-        <v>15.3661270227732</v>
+        <v>15.7461230622797</v>
       </c>
       <c r="M41" t="n">
-        <v>17.6644767570616</v>
+        <v>18.7231079488246</v>
       </c>
     </row>
     <row r="42">
@@ -40156,16 +40156,16 @@
         <v>122</v>
       </c>
       <c r="J42" t="n">
-        <v>14.9414329979591</v>
+        <v>15.6084551418002</v>
       </c>
       <c r="K42" t="n">
-        <v>0.398571424380559</v>
+        <v>0.448203985283267</v>
       </c>
       <c r="L42" t="n">
-        <v>14.1602473609064</v>
+        <v>14.7299914729177</v>
       </c>
       <c r="M42" t="n">
-        <v>15.7226186350119</v>
+        <v>16.4869188106827</v>
       </c>
     </row>
     <row r="43">
@@ -40197,16 +40197,16 @@
         <v>122</v>
       </c>
       <c r="J43" t="n">
-        <v>17.9736858745817</v>
+        <v>19.0843139834598</v>
       </c>
       <c r="K43" t="n">
-        <v>0.615955722723978</v>
+        <v>0.644627969123808</v>
       </c>
       <c r="L43" t="n">
-        <v>16.7664348419714</v>
+        <v>17.82086638055</v>
       </c>
       <c r="M43" t="n">
-        <v>19.180936907192</v>
+        <v>20.3477615863697</v>
       </c>
     </row>
     <row r="44">
@@ -40238,16 +40238,16 @@
         <v>122</v>
       </c>
       <c r="J44" t="n">
-        <v>17.5794207301004</v>
+        <v>19.4762573082577</v>
       </c>
       <c r="K44" t="n">
-        <v>0.769193284858449</v>
+        <v>0.757201368561055</v>
       </c>
       <c r="L44" t="n">
-        <v>16.0718295946278</v>
+        <v>17.9921698968336</v>
       </c>
       <c r="M44" t="n">
-        <v>19.087011865573</v>
+        <v>20.9603447196818</v>
       </c>
     </row>
     <row r="45">
@@ -40279,16 +40279,16 @@
         <v>122</v>
       </c>
       <c r="J45" t="n">
-        <v>19.15619961295</v>
+        <v>20.131686164605</v>
       </c>
       <c r="K45" t="n">
-        <v>0.583176442572403</v>
+        <v>0.708133149052512</v>
       </c>
       <c r="L45" t="n">
-        <v>18.0131947888759</v>
+        <v>18.7437706962032</v>
       </c>
       <c r="M45" t="n">
-        <v>20.2992044370241</v>
+        <v>21.5196016330069</v>
       </c>
     </row>
     <row r="46">
@@ -40320,16 +40320,16 @@
         <v>122</v>
       </c>
       <c r="J46" t="n">
-        <v>16.092558592262</v>
+        <v>16.6196087184354</v>
       </c>
       <c r="K46" t="n">
-        <v>0.734486894315523</v>
+        <v>0.852626604767883</v>
       </c>
       <c r="L46" t="n">
-        <v>14.6529907322869</v>
+        <v>14.9484912808297</v>
       </c>
       <c r="M46" t="n">
-        <v>17.5321264522371</v>
+        <v>18.2907261560411</v>
       </c>
     </row>
     <row r="47">
@@ -40361,16 +40361,16 @@
         <v>122</v>
       </c>
       <c r="J47" t="n">
-        <v>14.8921190285821</v>
+        <v>14.670686250767</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5242700305275</v>
+        <v>0.5352058536214</v>
       </c>
       <c r="L47" t="n">
-        <v>13.8645686505745</v>
+        <v>13.621702053354</v>
       </c>
       <c r="M47" t="n">
-        <v>15.9196694065897</v>
+        <v>15.7196704481799</v>
       </c>
     </row>
     <row r="48">
@@ -40402,16 +40402,16 @@
         <v>122</v>
       </c>
       <c r="J48" t="n">
-        <v>17.4238532423493</v>
+        <v>18.0900032258067</v>
       </c>
       <c r="K48" t="n">
-        <v>0.819034593795294</v>
+        <v>0.822591821775024</v>
       </c>
       <c r="L48" t="n">
-        <v>15.8185749364181</v>
+        <v>16.4777528811505</v>
       </c>
       <c r="M48" t="n">
-        <v>19.0291315482805</v>
+        <v>19.702253570463</v>
       </c>
     </row>
     <row r="49">
@@ -40443,16 +40443,16 @@
         <v>122</v>
       </c>
       <c r="J49" t="n">
-        <v>18.1682808137377</v>
+        <v>19.667321112362</v>
       </c>
       <c r="K49" t="n">
-        <v>0.998553761376183</v>
+        <v>1.00415285246608</v>
       </c>
       <c r="L49" t="n">
-        <v>16.2111514048134</v>
+        <v>17.6992176865554</v>
       </c>
       <c r="M49" t="n">
-        <v>20.125410222662</v>
+        <v>21.6354245381687</v>
       </c>
     </row>
     <row r="50">
@@ -40484,16 +40484,16 @@
         <v>122</v>
       </c>
       <c r="J50" t="n">
-        <v>19.1423237755187</v>
+        <v>19.1202918070303</v>
       </c>
       <c r="K50" t="n">
-        <v>0.676251323115738</v>
+        <v>0.79458557047331</v>
       </c>
       <c r="L50" t="n">
-        <v>17.8168955377142</v>
+        <v>17.5629327062674</v>
       </c>
       <c r="M50" t="n">
-        <v>20.4677520133231</v>
+        <v>20.6776509077932</v>
       </c>
     </row>
     <row r="51">
@@ -40525,16 +40525,16 @@
         <v>122</v>
       </c>
       <c r="J51" t="n">
-        <v>17.253078763512</v>
+        <v>18.3032521580067</v>
       </c>
       <c r="K51" t="n">
-        <v>0.911626947151413</v>
+        <v>1.25149167675316</v>
       </c>
       <c r="L51" t="n">
-        <v>15.4663227797591</v>
+        <v>15.8503735446189</v>
       </c>
       <c r="M51" t="n">
-        <v>19.039834747265</v>
+        <v>20.7561307713945</v>
       </c>
     </row>
     <row r="52">
@@ -40566,16 +40566,16 @@
         <v>122</v>
       </c>
       <c r="J52" t="n">
-        <v>15.0368121520549</v>
+        <v>17.2654499288738</v>
       </c>
       <c r="K52" t="n">
-        <v>0.526304237244644</v>
+        <v>0.667218708725323</v>
       </c>
       <c r="L52" t="n">
-        <v>14.0052748021446</v>
+        <v>15.9577252899609</v>
       </c>
       <c r="M52" t="n">
-        <v>16.0683495019653</v>
+        <v>18.5731745677868</v>
       </c>
     </row>
     <row r="53">
@@ -40607,16 +40607,16 @@
         <v>122</v>
       </c>
       <c r="J53" t="n">
-        <v>18.9428624782222</v>
+        <v>20.8250050030513</v>
       </c>
       <c r="K53" t="n">
-        <v>0.723351154349818</v>
+        <v>0.819254049947634</v>
       </c>
       <c r="L53" t="n">
-        <v>17.5251202675211</v>
+        <v>19.2192965709653</v>
       </c>
       <c r="M53" t="n">
-        <v>20.3606046889234</v>
+        <v>22.4307134351372</v>
       </c>
     </row>
     <row r="54">
@@ -40648,16 +40648,16 @@
         <v>122</v>
       </c>
       <c r="J54" t="n">
-        <v>16.4854506897087</v>
+        <v>19.1036346978196</v>
       </c>
       <c r="K54" t="n">
-        <v>1.06879691486988</v>
+        <v>1.11668819950613</v>
       </c>
       <c r="L54" t="n">
-        <v>14.3906472297762</v>
+        <v>16.9149660448267</v>
       </c>
       <c r="M54" t="n">
-        <v>18.5802541496411</v>
+        <v>21.2923033508125</v>
       </c>
     </row>
     <row r="55">
@@ -40689,16 +40689,16 @@
         <v>122</v>
       </c>
       <c r="J55" t="n">
-        <v>19.1812234755721</v>
+        <v>21.9619555224472</v>
       </c>
       <c r="K55" t="n">
-        <v>1.023712187596</v>
+        <v>1.14794901442617</v>
       </c>
       <c r="L55" t="n">
-        <v>17.1747844573492</v>
+        <v>19.7120167980837</v>
       </c>
       <c r="M55" t="n">
-        <v>21.1876624937949</v>
+        <v>24.2118942468108</v>
       </c>
     </row>
     <row r="56">
@@ -40730,16 +40730,16 @@
         <v>123</v>
       </c>
       <c r="J56" t="n">
-        <v>13.0988125741169</v>
+        <v>16.0296994351821</v>
       </c>
       <c r="K56" t="n">
-        <v>0.27057910182504</v>
+        <v>0.2937101956653</v>
       </c>
       <c r="L56" t="n">
-        <v>12.5684872795706</v>
+        <v>15.4540380297859</v>
       </c>
       <c r="M56" t="n">
-        <v>13.6291378686632</v>
+        <v>16.6053608405783</v>
       </c>
     </row>
     <row r="57">
@@ -40771,16 +40771,16 @@
         <v>123</v>
       </c>
       <c r="J57" t="n">
-        <v>12.9120746193513</v>
+        <v>15.3069478842178</v>
       </c>
       <c r="K57" t="n">
-        <v>0.314399434356108</v>
+        <v>0.315110723217072</v>
       </c>
       <c r="L57" t="n">
-        <v>12.2958630512536</v>
+        <v>14.68934221557</v>
       </c>
       <c r="M57" t="n">
-        <v>13.5282861874491</v>
+        <v>15.9245535528657</v>
       </c>
     </row>
     <row r="58">
@@ -40812,16 +40812,16 @@
         <v>123</v>
       </c>
       <c r="J58" t="n">
-        <v>13.5722069752502</v>
+        <v>17.7114667981735</v>
       </c>
       <c r="K58" t="n">
-        <v>0.421447941408294</v>
+        <v>0.571760927924569</v>
       </c>
       <c r="L58" t="n">
-        <v>12.7461841887314</v>
+        <v>16.5908359716741</v>
       </c>
       <c r="M58" t="n">
-        <v>14.398229761769</v>
+        <v>18.8320976246728</v>
       </c>
     </row>
     <row r="59">
@@ -40853,16 +40853,16 @@
         <v>123</v>
       </c>
       <c r="J59" t="n">
-        <v>16.868818727695</v>
+        <v>19.1424493886232</v>
       </c>
       <c r="K59" t="n">
-        <v>0.645746910554535</v>
+        <v>0.707617469965311</v>
       </c>
       <c r="L59" t="n">
-        <v>15.6031780398802</v>
+        <v>17.7555446326599</v>
       </c>
       <c r="M59" t="n">
-        <v>18.1344594155099</v>
+        <v>20.5293541445866</v>
       </c>
     </row>
     <row r="60">
@@ -40894,16 +40894,16 @@
         <v>123</v>
       </c>
       <c r="J60" t="n">
-        <v>14.0241167143871</v>
+        <v>16.8214277360523</v>
       </c>
       <c r="K60" t="n">
-        <v>0.370787886502586</v>
+        <v>0.407865199606669</v>
       </c>
       <c r="L60" t="n">
-        <v>13.2973858109383</v>
+        <v>16.022026634276</v>
       </c>
       <c r="M60" t="n">
-        <v>14.7508476178359</v>
+        <v>17.6208288378286</v>
       </c>
     </row>
     <row r="61">
@@ -40935,16 +40935,16 @@
         <v>123</v>
       </c>
       <c r="J61" t="n">
-        <v>12.7135513056898</v>
+        <v>15.688494300269</v>
       </c>
       <c r="K61" t="n">
-        <v>0.492843196452625</v>
+        <v>0.536097634584208</v>
       </c>
       <c r="L61" t="n">
-        <v>11.7475963906171</v>
+        <v>14.6377622442869</v>
       </c>
       <c r="M61" t="n">
-        <v>13.6795062207626</v>
+        <v>16.7392263562512</v>
       </c>
     </row>
     <row r="62">
@@ -40976,16 +40976,16 @@
         <v>123</v>
       </c>
       <c r="J62" t="n">
-        <v>10.8505573953281</v>
+        <v>13.8839458608764</v>
       </c>
       <c r="K62" t="n">
-        <v>0.538647235454557</v>
+        <v>0.543840653420147</v>
       </c>
       <c r="L62" t="n">
-        <v>9.79482821346509</v>
+        <v>12.8180377668442</v>
       </c>
       <c r="M62" t="n">
-        <v>11.9062865771911</v>
+        <v>14.9498539549086</v>
       </c>
     </row>
     <row r="63">
@@ -41017,16 +41017,16 @@
         <v>123</v>
       </c>
       <c r="J63" t="n">
-        <v>13.3966035770262</v>
+        <v>16.7451591784418</v>
       </c>
       <c r="K63" t="n">
-        <v>0.523363190200219</v>
+        <v>0.569305555859126</v>
       </c>
       <c r="L63" t="n">
-        <v>12.3708305733998</v>
+        <v>15.6293407927593</v>
       </c>
       <c r="M63" t="n">
-        <v>14.4223765806526</v>
+        <v>17.8609775641242</v>
       </c>
     </row>
     <row r="64">
@@ -41058,16 +41058,16 @@
         <v>123</v>
       </c>
       <c r="J64" t="n">
-        <v>16.4331460332615</v>
+        <v>18.0286874162152</v>
       </c>
       <c r="K64" t="n">
-        <v>0.653904310808396</v>
+        <v>0.745350902771368</v>
       </c>
       <c r="L64" t="n">
-        <v>15.1515171347415</v>
+        <v>16.5678264909389</v>
       </c>
       <c r="M64" t="n">
-        <v>17.7147749317814</v>
+        <v>19.4895483414915</v>
       </c>
     </row>
     <row r="65">
@@ -41099,16 +41099,16 @@
         <v>123</v>
       </c>
       <c r="J65" t="n">
-        <v>14.1259764235424</v>
+        <v>16.6478062237964</v>
       </c>
       <c r="K65" t="n">
-        <v>0.437850844085355</v>
+        <v>0.512062246059972</v>
       </c>
       <c r="L65" t="n">
-        <v>13.2678045385346</v>
+        <v>15.6441826636762</v>
       </c>
       <c r="M65" t="n">
-        <v>14.9841483085502</v>
+        <v>17.6514297839167</v>
       </c>
     </row>
     <row r="66">
@@ -41140,16 +41140,16 @@
         <v>123</v>
       </c>
       <c r="J66" t="n">
-        <v>12.4828339595063</v>
+        <v>14.8562603360134</v>
       </c>
       <c r="K66" t="n">
-        <v>0.571872499093821</v>
+        <v>0.547510565528675</v>
       </c>
       <c r="L66" t="n">
-        <v>11.3619844575335</v>
+        <v>13.783159346422</v>
       </c>
       <c r="M66" t="n">
-        <v>13.6036834614791</v>
+        <v>15.9293613256047</v>
       </c>
     </row>
     <row r="67">
@@ -41181,16 +41181,16 @@
         <v>123</v>
       </c>
       <c r="J67" t="n">
-        <v>10.3366720104555</v>
+        <v>12.5038937243885</v>
       </c>
       <c r="K67" t="n">
-        <v>0.620919204029121</v>
+        <v>0.669102810826511</v>
       </c>
       <c r="L67" t="n">
-        <v>9.11969273324918</v>
+        <v>11.192476313214</v>
       </c>
       <c r="M67" t="n">
-        <v>11.5536512876619</v>
+        <v>13.815311135563</v>
       </c>
     </row>
     <row r="68">
@@ -41222,16 +41222,16 @@
         <v>123</v>
       </c>
       <c r="J68" t="n">
-        <v>13.0139257502934</v>
+        <v>15.9616038067274</v>
       </c>
       <c r="K68" t="n">
-        <v>0.602204710370557</v>
+        <v>0.690094075114365</v>
       </c>
       <c r="L68" t="n">
-        <v>11.8336262066467</v>
+        <v>14.6090442735588</v>
       </c>
       <c r="M68" t="n">
-        <v>14.1942252939401</v>
+        <v>17.3141633398961</v>
       </c>
     </row>
     <row r="69">
@@ -41263,16 +41263,16 @@
         <v>123</v>
       </c>
       <c r="J69" t="n">
-        <v>18.1131747155149</v>
+        <v>21.8593022533067</v>
       </c>
       <c r="K69" t="n">
-        <v>1.1358009220899</v>
+        <v>1.11847391881032</v>
       </c>
       <c r="L69" t="n">
-        <v>15.8870458146113</v>
+        <v>19.6671336547911</v>
       </c>
       <c r="M69" t="n">
-        <v>20.3393036164185</v>
+        <v>24.0514708518223</v>
       </c>
     </row>
     <row r="70">
@@ -41304,16 +41304,16 @@
         <v>123</v>
       </c>
       <c r="J70" t="n">
-        <v>13.8601085785886</v>
+        <v>17.3287191709299</v>
       </c>
       <c r="K70" t="n">
-        <v>0.575243031462838</v>
+        <v>0.63580155600698</v>
       </c>
       <c r="L70" t="n">
-        <v>12.7326529545638</v>
+        <v>16.0825710198417</v>
       </c>
       <c r="M70" t="n">
-        <v>14.9875642026134</v>
+        <v>18.5748673220181</v>
       </c>
     </row>
     <row r="71">
@@ -41345,16 +41345,16 @@
         <v>123</v>
       </c>
       <c r="J71" t="n">
-        <v>13.2771101964643</v>
+        <v>17.5726591085578</v>
       </c>
       <c r="K71" t="n">
-        <v>0.757906783629903</v>
+        <v>1.09054045742423</v>
       </c>
       <c r="L71" t="n">
-        <v>11.7916401969111</v>
+        <v>15.4352390883225</v>
       </c>
       <c r="M71" t="n">
-        <v>14.7625801960175</v>
+        <v>19.7100791287932</v>
       </c>
     </row>
     <row r="72">
@@ -41386,16 +41386,16 @@
         <v>123</v>
       </c>
       <c r="J72" t="n">
-        <v>11.8443442537353</v>
+        <v>16.6246156349173</v>
       </c>
       <c r="K72" t="n">
-        <v>0.89638977882637</v>
+        <v>0.976037175673878</v>
       </c>
       <c r="L72" t="n">
-        <v>10.0874525711258</v>
+        <v>14.7116179230243</v>
       </c>
       <c r="M72" t="n">
-        <v>13.6012359363448</v>
+        <v>18.5376133468103</v>
       </c>
     </row>
     <row r="73">
@@ -41427,16 +41427,16 @@
         <v>123</v>
       </c>
       <c r="J73" t="n">
-        <v>14.2651375414999</v>
+        <v>18.6325310810269</v>
       </c>
       <c r="K73" t="n">
-        <v>0.894556571185564</v>
+        <v>0.942941782186956</v>
       </c>
       <c r="L73" t="n">
-        <v>12.5118388798425</v>
+        <v>16.7843991484225</v>
       </c>
       <c r="M73" t="n">
-        <v>16.0184362031572</v>
+        <v>20.4806630136313</v>
       </c>
     </row>
   </sheetData>
@@ -46180,16 +46180,16 @@
         <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>7.89506981203415</v>
+        <v>8.03642316968377</v>
       </c>
       <c r="I2" t="n">
-        <v>0.217439001684599</v>
+        <v>0.23798200801325</v>
       </c>
       <c r="J2" t="n">
-        <v>7.46889719989799</v>
+        <v>7.56998700500928</v>
       </c>
       <c r="K2" t="n">
-        <v>8.32124242417031</v>
+        <v>8.50285933435826</v>
       </c>
     </row>
     <row r="3">
@@ -46215,16 +46215,16 @@
         <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>8.61351546789725</v>
+        <v>9.14462813799123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612019297198032</v>
+        <v>0.755769006413032</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4139796875456</v>
+        <v>7.66334810479006</v>
       </c>
       <c r="K3" t="n">
-        <v>9.81305124824891</v>
+        <v>10.6259081711924</v>
       </c>
     </row>
     <row r="4">
@@ -46250,16 +46250,16 @@
         <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>7.41538276796836</v>
+        <v>7.48447565398744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.348192840691331</v>
+        <v>0.348142991201917</v>
       </c>
       <c r="J4" t="n">
-        <v>6.73293734053866</v>
+        <v>6.80212792976164</v>
       </c>
       <c r="K4" t="n">
-        <v>8.09782819539806</v>
+        <v>8.16682337821324</v>
       </c>
     </row>
     <row r="5">
@@ -46285,16 +46285,16 @@
         <v>112</v>
       </c>
       <c r="H5" t="n">
-        <v>7.82953260523082</v>
+        <v>7.87471387234343</v>
       </c>
       <c r="I5" t="n">
-        <v>0.398829890217103</v>
+        <v>0.449415824915657</v>
       </c>
       <c r="J5" t="n">
-        <v>7.04784038444723</v>
+        <v>6.99387504142639</v>
       </c>
       <c r="K5" t="n">
-        <v>8.61122482601441</v>
+        <v>8.75555270326048</v>
       </c>
     </row>
     <row r="6">
@@ -46320,16 +46320,16 @@
         <v>112</v>
       </c>
       <c r="H6" t="n">
-        <v>8.19112518959447</v>
+        <v>8.40133887483118</v>
       </c>
       <c r="I6" t="n">
-        <v>0.621591659974859</v>
+        <v>0.643648529275993</v>
       </c>
       <c r="J6" t="n">
-        <v>6.97282792295328</v>
+        <v>7.13981093874806</v>
       </c>
       <c r="K6" t="n">
-        <v>9.40942245623566</v>
+        <v>9.6628668109143</v>
       </c>
     </row>
     <row r="7">
@@ -46355,16 +46355,16 @@
         <v>112</v>
       </c>
       <c r="H7" t="n">
-        <v>8.43612122824843</v>
+        <v>8.67256132284468</v>
       </c>
       <c r="I7" t="n">
-        <v>0.465205871092399</v>
+        <v>0.451635208695565</v>
       </c>
       <c r="J7" t="n">
-        <v>7.52433447551075</v>
+        <v>7.78737257965114</v>
       </c>
       <c r="K7" t="n">
-        <v>9.34790798098612</v>
+        <v>9.55775006603822</v>
       </c>
     </row>
     <row r="8">
@@ -46390,16 +46390,16 @@
         <v>112</v>
       </c>
       <c r="H8" t="n">
-        <v>9.53700761194945</v>
+        <v>9.01983260504188</v>
       </c>
       <c r="I8" t="n">
-        <v>1.02875325602805</v>
+        <v>1.0416012129893</v>
       </c>
       <c r="J8" t="n">
-        <v>7.52068828115616</v>
+        <v>6.97833174132962</v>
       </c>
       <c r="K8" t="n">
-        <v>11.5533269427427</v>
+        <v>11.0613334687541</v>
       </c>
     </row>
     <row r="9">
@@ -46425,16 +46425,16 @@
         <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>8.74977846011169</v>
+        <v>9.14091022307078</v>
       </c>
       <c r="I9" t="n">
-        <v>0.881129109854944</v>
+        <v>0.808880145713923</v>
       </c>
       <c r="J9" t="n">
-        <v>7.02279713906616</v>
+        <v>7.55553426966198</v>
       </c>
       <c r="K9" t="n">
-        <v>10.4767597811572</v>
+        <v>10.7262861764796</v>
       </c>
     </row>
     <row r="10">
@@ -46460,16 +46460,16 @@
         <v>112</v>
       </c>
       <c r="H10" t="n">
-        <v>7.89140477197944</v>
+        <v>9.42909591923691</v>
       </c>
       <c r="I10" t="n">
-        <v>0.710676806085525</v>
+        <v>0.845055988687156</v>
       </c>
       <c r="J10" t="n">
-        <v>6.49850382740386</v>
+        <v>7.7728166164902</v>
       </c>
       <c r="K10" t="n">
-        <v>9.28430571655502</v>
+        <v>11.0853752219836</v>
       </c>
     </row>
     <row r="11">
@@ -46495,16 +46495,16 @@
         <v>112</v>
       </c>
       <c r="H11" t="n">
-        <v>8.46033905634686</v>
+        <v>7.62789357222682</v>
       </c>
       <c r="I11" t="n">
-        <v>0.911861807166456</v>
+        <v>0.904417985962384</v>
       </c>
       <c r="J11" t="n">
-        <v>6.67312275542299</v>
+        <v>5.8552668927703</v>
       </c>
       <c r="K11" t="n">
-        <v>10.2475553572707</v>
+        <v>9.40052025168335</v>
       </c>
     </row>
     <row r="12">
@@ -46530,16 +46530,16 @@
         <v>112</v>
       </c>
       <c r="H12" t="n">
-        <v>9.16420438697147</v>
+        <v>9.40631588726305</v>
       </c>
       <c r="I12" t="n">
-        <v>1.27052769015961</v>
+        <v>1.58070325673035</v>
       </c>
       <c r="J12" t="n">
-        <v>6.67401587289776</v>
+        <v>6.3081944338264</v>
       </c>
       <c r="K12" t="n">
-        <v>11.6543929010452</v>
+        <v>12.5044373406997</v>
       </c>
     </row>
     <row r="13">
@@ -46565,16 +46565,16 @@
         <v>112</v>
       </c>
       <c r="H13" t="n">
-        <v>9.0855887679715</v>
+        <v>9.54678100455967</v>
       </c>
       <c r="I13" t="n">
-        <v>0.834709741798522</v>
+        <v>0.848036233692688</v>
       </c>
       <c r="J13" t="n">
-        <v>7.44958773650167</v>
+        <v>7.88466052893701</v>
       </c>
       <c r="K13" t="n">
-        <v>10.7215897994413</v>
+        <v>11.2089014801823</v>
       </c>
     </row>
     <row r="14">
@@ -46600,16 +46600,16 @@
         <v>112</v>
       </c>
       <c r="H14" t="n">
-        <v>6.58157560015966</v>
+        <v>7.59014464754725</v>
       </c>
       <c r="I14" t="n">
-        <v>0.76479966085641</v>
+        <v>0.977219921986374</v>
       </c>
       <c r="J14" t="n">
-        <v>5.08259580949265</v>
+        <v>5.67482879547891</v>
       </c>
       <c r="K14" t="n">
-        <v>8.08055539082667</v>
+        <v>9.50546049961558</v>
       </c>
     </row>
     <row r="15">
@@ -46635,16 +46635,16 @@
         <v>112</v>
       </c>
       <c r="H15" t="n">
-        <v>5.60004311440963</v>
+        <v>5.96196984989256</v>
       </c>
       <c r="I15" t="n">
-        <v>0.695786341855154</v>
+        <v>0.679870585981698</v>
       </c>
       <c r="J15" t="n">
-        <v>4.23632694343866</v>
+        <v>4.62944798722029</v>
       </c>
       <c r="K15" t="n">
-        <v>6.96375928538061</v>
+        <v>7.29449171256483</v>
       </c>
     </row>
     <row r="16">
@@ -46670,16 +46670,16 @@
         <v>112</v>
       </c>
       <c r="H16" t="n">
-        <v>5.62376744482782</v>
+        <v>4.75000791761328</v>
       </c>
       <c r="I16" t="n">
-        <v>0.800764218310405</v>
+        <v>0.631763375481975</v>
       </c>
       <c r="J16" t="n">
-        <v>4.05429841683106</v>
+        <v>3.51177445491715</v>
       </c>
       <c r="K16" t="n">
-        <v>7.19323647282459</v>
+        <v>5.9882413803094</v>
       </c>
     </row>
     <row r="17">
@@ -46705,16 +46705,16 @@
         <v>112</v>
       </c>
       <c r="H17" t="n">
-        <v>8.48623301225788</v>
+        <v>7.82209111985195</v>
       </c>
       <c r="I17" t="n">
-        <v>0.924820221924724</v>
+        <v>0.791573999210416</v>
       </c>
       <c r="J17" t="n">
-        <v>6.67361868511108</v>
+        <v>6.2706345903012</v>
       </c>
       <c r="K17" t="n">
-        <v>10.2988473394047</v>
+        <v>9.3735476494027</v>
       </c>
     </row>
     <row r="18">
@@ -46740,16 +46740,16 @@
         <v>112</v>
       </c>
       <c r="H18" t="n">
-        <v>7.67957176112279</v>
+        <v>7.74239031986265</v>
       </c>
       <c r="I18" t="n">
-        <v>0.685041610084856</v>
+        <v>0.683250434547012</v>
       </c>
       <c r="J18" t="n">
-        <v>6.33691487744515</v>
+        <v>6.40324407572916</v>
       </c>
       <c r="K18" t="n">
-        <v>9.02222864480044</v>
+        <v>9.08153656399613</v>
       </c>
     </row>
     <row r="19">
@@ -46775,16 +46775,16 @@
         <v>112</v>
       </c>
       <c r="H19" t="n">
-        <v>7.08522188876799</v>
+        <v>7.28140639160619</v>
       </c>
       <c r="I19" t="n">
-        <v>0.642670954708098</v>
+        <v>0.779721976830099</v>
       </c>
       <c r="J19" t="n">
-        <v>5.82560996363015</v>
+        <v>5.75317939906482</v>
       </c>
       <c r="K19" t="n">
-        <v>8.34483381390584</v>
+        <v>8.80963338414756</v>
       </c>
     </row>
     <row r="20">
@@ -46810,16 +46810,16 @@
         <v>112</v>
       </c>
       <c r="H20" t="n">
-        <v>8.11641506988726</v>
+        <v>8.53876160429776</v>
       </c>
       <c r="I20" t="n">
-        <v>0.844066019001064</v>
+        <v>0.999430644050323</v>
       </c>
       <c r="J20" t="n">
-        <v>6.46207607207108</v>
+        <v>6.57991353691346</v>
       </c>
       <c r="K20" t="n">
-        <v>9.77075406770345</v>
+        <v>10.4976096716821</v>
       </c>
     </row>
     <row r="21">
@@ -46845,16 +46845,16 @@
         <v>112</v>
       </c>
       <c r="H21" t="n">
-        <v>8.52894371396633</v>
+        <v>7.37284916238591</v>
       </c>
       <c r="I21" t="n">
-        <v>0.848365808019887</v>
+        <v>0.796925829224695</v>
       </c>
       <c r="J21" t="n">
-        <v>6.86617728453213</v>
+        <v>5.81090323875579</v>
       </c>
       <c r="K21" t="n">
-        <v>10.1917101434005</v>
+        <v>8.93479508601603</v>
       </c>
     </row>
     <row r="22">
@@ -46880,16 +46880,16 @@
         <v>112</v>
       </c>
       <c r="H22" t="n">
-        <v>7.72664415856418</v>
+        <v>7.97812463701196</v>
       </c>
       <c r="I22" t="n">
-        <v>0.735032645291827</v>
+        <v>0.892089840056728</v>
       </c>
       <c r="J22" t="n">
-        <v>6.28600664633099</v>
+        <v>6.22966067952668</v>
       </c>
       <c r="K22" t="n">
-        <v>9.16728167079736</v>
+        <v>9.72658859449725</v>
       </c>
     </row>
     <row r="23">
@@ -46915,16 +46915,16 @@
         <v>112</v>
       </c>
       <c r="H23" t="n">
-        <v>7.42084651225756</v>
+        <v>7.99833913029412</v>
       </c>
       <c r="I23" t="n">
-        <v>0.96314200382281</v>
+        <v>0.961915847516218</v>
       </c>
       <c r="J23" t="n">
-        <v>5.53312287276711</v>
+        <v>6.11301871300401</v>
       </c>
       <c r="K23" t="n">
-        <v>9.30857015174801</v>
+        <v>9.88365954758423</v>
       </c>
     </row>
     <row r="24">
@@ -46950,16 +46950,16 @@
         <v>112</v>
       </c>
       <c r="H24" t="n">
-        <v>7.30672786751188</v>
+        <v>6.08825600990011</v>
       </c>
       <c r="I24" t="n">
-        <v>0.798071456793763</v>
+        <v>0.894110572826388</v>
       </c>
       <c r="J24" t="n">
-        <v>5.74253655510669</v>
+        <v>4.33583148896391</v>
       </c>
       <c r="K24" t="n">
-        <v>8.87091917991707</v>
+        <v>7.84068053083631</v>
       </c>
     </row>
     <row r="25">
@@ -46985,16 +46985,16 @@
         <v>112</v>
       </c>
       <c r="H25" t="n">
-        <v>9.05422203017912</v>
+        <v>9.24357297819884</v>
       </c>
       <c r="I25" t="n">
-        <v>0.753163581323781</v>
+        <v>0.596614038689528</v>
       </c>
       <c r="J25" t="n">
-        <v>7.57804853631731</v>
+        <v>8.07423094969638</v>
       </c>
       <c r="K25" t="n">
-        <v>10.5303955240409</v>
+        <v>10.4129150067013</v>
       </c>
     </row>
     <row r="26">
@@ -47020,16 +47020,16 @@
         <v>112</v>
       </c>
       <c r="H26" t="n">
-        <v>8.81230862089968</v>
+        <v>8.31723932443611</v>
       </c>
       <c r="I26" t="n">
-        <v>0.594029364490362</v>
+        <v>0.56806241327994</v>
       </c>
       <c r="J26" t="n">
-        <v>7.64803246073935</v>
+        <v>7.20385745343652</v>
       </c>
       <c r="K26" t="n">
-        <v>9.97658478106</v>
+        <v>9.4306211954357</v>
       </c>
     </row>
     <row r="27">
@@ -47055,16 +47055,16 @@
         <v>112</v>
       </c>
       <c r="H27" t="n">
-        <v>7.60858690429125</v>
+        <v>8.43200878254981</v>
       </c>
       <c r="I27" t="n">
-        <v>0.627676054186467</v>
+        <v>0.722492835395295</v>
       </c>
       <c r="J27" t="n">
-        <v>6.37836444412756</v>
+        <v>7.01594884608681</v>
       </c>
       <c r="K27" t="n">
-        <v>8.83880936445494</v>
+        <v>9.84806871901282</v>
       </c>
     </row>
     <row r="28">
@@ -47090,16 +47090,16 @@
         <v>112</v>
       </c>
       <c r="H28" t="n">
-        <v>8.67245788644663</v>
+        <v>9.12771450839196</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0774386828251</v>
+        <v>1.22914467154362</v>
       </c>
       <c r="J28" t="n">
-        <v>6.56071687255916</v>
+        <v>6.71863522037714</v>
       </c>
       <c r="K28" t="n">
-        <v>10.7841989003341</v>
+        <v>11.5367937964068</v>
       </c>
     </row>
     <row r="29">
@@ -47125,16 +47125,16 @@
         <v>112</v>
       </c>
       <c r="H29" t="n">
-        <v>8.64704845587235</v>
+        <v>8.25767138313986</v>
       </c>
       <c r="I29" t="n">
-        <v>0.955050700933598</v>
+        <v>0.882547492721307</v>
       </c>
       <c r="J29" t="n">
-        <v>6.77518347863277</v>
+        <v>6.52791008275997</v>
       </c>
       <c r="K29" t="n">
-        <v>10.5189134331119</v>
+        <v>9.98743268351975</v>
       </c>
     </row>
     <row r="30">
@@ -47160,16 +47160,16 @@
         <v>112</v>
       </c>
       <c r="H30" t="n">
-        <v>7.37536923875636</v>
+        <v>7.73850143813338</v>
       </c>
       <c r="I30" t="n">
-        <v>1.08008847108535</v>
+        <v>1.04504421413705</v>
       </c>
       <c r="J30" t="n">
-        <v>5.25843473531214</v>
+        <v>5.69025241617279</v>
       </c>
       <c r="K30" t="n">
-        <v>9.49230374220058</v>
+        <v>9.78675046009396</v>
       </c>
     </row>
     <row r="31">
@@ -47195,16 +47195,16 @@
         <v>112</v>
       </c>
       <c r="H31" t="n">
-        <v>9.63939113129127</v>
+        <v>9.7553750044294</v>
       </c>
       <c r="I31" t="n">
-        <v>0.707940474841681</v>
+        <v>0.745843008270051</v>
       </c>
       <c r="J31" t="n">
-        <v>8.25185329740339</v>
+        <v>8.29354957009909</v>
       </c>
       <c r="K31" t="n">
-        <v>11.0269289651791</v>
+        <v>11.2172004387597</v>
       </c>
     </row>
     <row r="32">
@@ -47230,16 +47230,16 @@
         <v>112</v>
       </c>
       <c r="H32" t="n">
-        <v>6.61566450646767</v>
+        <v>8.26103890418558</v>
       </c>
       <c r="I32" t="n">
-        <v>1.10803749078135</v>
+        <v>1.10096840650321</v>
       </c>
       <c r="J32" t="n">
-        <v>4.44395093101609</v>
+        <v>6.10318047932283</v>
       </c>
       <c r="K32" t="n">
-        <v>8.78737808191925</v>
+        <v>10.4188973290483</v>
       </c>
     </row>
     <row r="33">
@@ -47265,16 +47265,16 @@
         <v>112</v>
       </c>
       <c r="H33" t="n">
-        <v>8.15318807624887</v>
+        <v>7.77208915678741</v>
       </c>
       <c r="I33" t="n">
-        <v>0.773816224639872</v>
+        <v>0.709125976365646</v>
       </c>
       <c r="J33" t="n">
-        <v>6.63653614530197</v>
+        <v>6.38222778260894</v>
       </c>
       <c r="K33" t="n">
-        <v>9.66984000719578</v>
+        <v>9.16195053096588</v>
       </c>
     </row>
     <row r="34">
@@ -47300,16 +47300,16 @@
         <v>112</v>
       </c>
       <c r="H34" t="n">
-        <v>10.3746403955057</v>
+        <v>10.2800053820688</v>
       </c>
       <c r="I34" t="n">
-        <v>0.924808697634947</v>
+        <v>0.969075060448163</v>
       </c>
       <c r="J34" t="n">
-        <v>8.56204865555184</v>
+        <v>8.38065316527446</v>
       </c>
       <c r="K34" t="n">
-        <v>12.1872321354596</v>
+        <v>12.1793575988632</v>
       </c>
     </row>
     <row r="35">
@@ -47335,16 +47335,16 @@
         <v>120</v>
       </c>
       <c r="H35" t="n">
-        <v>24.677171504634</v>
+        <v>27.0177889682099</v>
       </c>
       <c r="I35" t="n">
-        <v>0.420873895475597</v>
+        <v>0.400835067951796</v>
       </c>
       <c r="J35" t="n">
-        <v>23.8522738274688</v>
+        <v>26.2321666712838</v>
       </c>
       <c r="K35" t="n">
-        <v>25.5020691817993</v>
+        <v>27.8034112651361</v>
       </c>
     </row>
     <row r="36">
@@ -47370,16 +47370,16 @@
         <v>120</v>
       </c>
       <c r="H36" t="n">
-        <v>23.5173067594454</v>
+        <v>24.5136806970619</v>
       </c>
       <c r="I36" t="n">
-        <v>0.778243507998037</v>
+        <v>0.908592621924154</v>
       </c>
       <c r="J36" t="n">
-        <v>21.9919775125671</v>
+        <v>22.7328718814718</v>
       </c>
       <c r="K36" t="n">
-        <v>25.0426360063237</v>
+        <v>26.2944895126521</v>
       </c>
     </row>
     <row r="37">
@@ -47405,16 +47405,16 @@
         <v>120</v>
       </c>
       <c r="H37" t="n">
-        <v>21.8713102080079</v>
+        <v>23.5663393383344</v>
       </c>
       <c r="I37" t="n">
-        <v>0.608585859247985</v>
+        <v>0.640854720805895</v>
       </c>
       <c r="J37" t="n">
-        <v>20.6785038423815</v>
+        <v>22.3102871662323</v>
       </c>
       <c r="K37" t="n">
-        <v>23.0641165736343</v>
+        <v>24.8223915104364</v>
       </c>
     </row>
     <row r="38">
@@ -47440,16 +47440,16 @@
         <v>120</v>
       </c>
       <c r="H38" t="n">
-        <v>26.2094521471388</v>
+        <v>28.9419631473397</v>
       </c>
       <c r="I38" t="n">
-        <v>0.858480838008951</v>
+        <v>0.770562654306772</v>
       </c>
       <c r="J38" t="n">
-        <v>24.5268606232234</v>
+        <v>27.4316880970668</v>
       </c>
       <c r="K38" t="n">
-        <v>27.8920436710541</v>
+        <v>30.4522381976126</v>
       </c>
     </row>
     <row r="39">
@@ -47475,16 +47475,16 @@
         <v>120</v>
       </c>
       <c r="H39" t="n">
-        <v>25.307685540353</v>
+        <v>29.0821973292055</v>
       </c>
       <c r="I39" t="n">
-        <v>1.14921559447237</v>
+        <v>1.10915861876512</v>
       </c>
       <c r="J39" t="n">
-        <v>23.0552643647154</v>
+        <v>26.9082863832836</v>
       </c>
       <c r="K39" t="n">
-        <v>27.5601067159907</v>
+        <v>31.2561082751273</v>
       </c>
     </row>
     <row r="40">
@@ -47510,16 +47510,16 @@
         <v>120</v>
       </c>
       <c r="H40" t="n">
-        <v>27.8692853089065</v>
+        <v>30.1754896013449</v>
       </c>
       <c r="I40" t="n">
-        <v>0.861498946337026</v>
+        <v>0.9138314020268</v>
       </c>
       <c r="J40" t="n">
-        <v>26.1807784013667</v>
+        <v>28.3844129654306</v>
       </c>
       <c r="K40" t="n">
-        <v>29.5577922164463</v>
+        <v>31.9665662372591</v>
       </c>
     </row>
     <row r="41">
@@ -47545,16 +47545,16 @@
         <v>120</v>
       </c>
       <c r="H41" t="n">
-        <v>28.5039350763007</v>
+        <v>30.4076881983703</v>
       </c>
       <c r="I41" t="n">
-        <v>2.12952957184692</v>
+        <v>1.84289782947491</v>
       </c>
       <c r="J41" t="n">
-        <v>24.3301338114677</v>
+        <v>26.7956748254124</v>
       </c>
       <c r="K41" t="n">
-        <v>32.6777363411337</v>
+        <v>34.0197015713281</v>
       </c>
     </row>
     <row r="42">
@@ -47580,16 +47580,16 @@
         <v>120</v>
       </c>
       <c r="H42" t="n">
-        <v>25.4653529786425</v>
+        <v>27.2833406534132</v>
       </c>
       <c r="I42" t="n">
-        <v>1.55684624022825</v>
+        <v>1.51255471711386</v>
       </c>
       <c r="J42" t="n">
-        <v>22.4139904183285</v>
+        <v>24.3187878832239</v>
       </c>
       <c r="K42" t="n">
-        <v>28.5167155389564</v>
+        <v>30.2478934236026</v>
       </c>
     </row>
     <row r="43">
@@ -47615,16 +47615,16 @@
         <v>120</v>
       </c>
       <c r="H43" t="n">
-        <v>23.8671116578222</v>
+        <v>25.8256090303207</v>
       </c>
       <c r="I43" t="n">
-        <v>1.31281398621248</v>
+        <v>1.64459673925894</v>
       </c>
       <c r="J43" t="n">
-        <v>21.2940435264452</v>
+        <v>22.6022586522811</v>
       </c>
       <c r="K43" t="n">
-        <v>26.4401797891991</v>
+        <v>29.0489594083602</v>
       </c>
     </row>
     <row r="44">
@@ -47650,16 +47650,16 @@
         <v>120</v>
       </c>
       <c r="H44" t="n">
-        <v>23.2331300822151</v>
+        <v>25.4984718330048</v>
       </c>
       <c r="I44" t="n">
-        <v>1.22542600871355</v>
+        <v>1.38378867108942</v>
       </c>
       <c r="J44" t="n">
-        <v>20.8313392394179</v>
+        <v>22.786295875455</v>
       </c>
       <c r="K44" t="n">
-        <v>25.6349209250123</v>
+        <v>28.2106477905546</v>
       </c>
     </row>
     <row r="45">
@@ -47685,16 +47685,16 @@
         <v>120</v>
       </c>
       <c r="H45" t="n">
-        <v>21.6549592645875</v>
+        <v>21.6726338144164</v>
       </c>
       <c r="I45" t="n">
-        <v>1.38513009337524</v>
+        <v>1.61642264876091</v>
       </c>
       <c r="J45" t="n">
-        <v>18.9401541676694</v>
+        <v>18.5045036390502</v>
       </c>
       <c r="K45" t="n">
-        <v>24.3697643615056</v>
+        <v>24.8407639897827</v>
       </c>
     </row>
     <row r="46">
@@ -47720,16 +47720,16 @@
         <v>120</v>
       </c>
       <c r="H46" t="n">
-        <v>27.2214148208639</v>
+        <v>29.1043688764947</v>
       </c>
       <c r="I46" t="n">
-        <v>1.23893902170131</v>
+        <v>1.228259248516</v>
       </c>
       <c r="J46" t="n">
-        <v>24.7931389592881</v>
+        <v>26.6970249857251</v>
       </c>
       <c r="K46" t="n">
-        <v>29.6496906824398</v>
+        <v>31.5117127672642</v>
       </c>
     </row>
     <row r="47">
@@ -47755,16 +47755,16 @@
         <v>120</v>
       </c>
       <c r="H47" t="n">
-        <v>25.6056578306963</v>
+        <v>27.6422369474499</v>
       </c>
       <c r="I47" t="n">
-        <v>1.54246143725389</v>
+        <v>1.40166568771927</v>
       </c>
       <c r="J47" t="n">
-        <v>22.5824889661368</v>
+        <v>24.8950226811546</v>
       </c>
       <c r="K47" t="n">
-        <v>28.6288266952558</v>
+        <v>30.3894512137452</v>
       </c>
     </row>
     <row r="48">
@@ -47790,16 +47790,16 @@
         <v>120</v>
       </c>
       <c r="H48" t="n">
-        <v>18.3636018842344</v>
+        <v>19.9622413325929</v>
       </c>
       <c r="I48" t="n">
-        <v>1.51403251918442</v>
+        <v>1.74378982909716</v>
       </c>
       <c r="J48" t="n">
-        <v>15.3961526752105</v>
+        <v>16.5444760709552</v>
       </c>
       <c r="K48" t="n">
-        <v>21.3310510932583</v>
+        <v>23.3800065942306</v>
       </c>
     </row>
     <row r="49">
@@ -47825,16 +47825,16 @@
         <v>120</v>
       </c>
       <c r="H49" t="n">
-        <v>21.6789459084291</v>
+        <v>23.166551035803</v>
       </c>
       <c r="I49" t="n">
-        <v>1.72312170048681</v>
+        <v>1.57513051790438</v>
       </c>
       <c r="J49" t="n">
-        <v>18.3016894344955</v>
+        <v>20.0793519497605</v>
       </c>
       <c r="K49" t="n">
-        <v>25.0562023823626</v>
+        <v>26.2537501218455</v>
       </c>
     </row>
     <row r="50">
@@ -47860,16 +47860,16 @@
         <v>120</v>
       </c>
       <c r="H50" t="n">
-        <v>21.4030255185242</v>
+        <v>24.1120701741456</v>
       </c>
       <c r="I50" t="n">
-        <v>1.76742235889817</v>
+        <v>1.88535169893651</v>
       </c>
       <c r="J50" t="n">
-        <v>17.938941349613</v>
+        <v>20.4168487460387</v>
       </c>
       <c r="K50" t="n">
-        <v>24.8671096874355</v>
+        <v>27.8072916022526</v>
       </c>
     </row>
     <row r="51">
@@ -47895,16 +47895,16 @@
         <v>120</v>
       </c>
       <c r="H51" t="n">
-        <v>21.9662292248178</v>
+        <v>23.6718029957685</v>
       </c>
       <c r="I51" t="n">
-        <v>1.40124940905066</v>
+        <v>1.45549514730299</v>
       </c>
       <c r="J51" t="n">
-        <v>19.2198308497205</v>
+        <v>20.8190849273818</v>
       </c>
       <c r="K51" t="n">
-        <v>24.7126275999152</v>
+        <v>26.5245210641551</v>
       </c>
     </row>
     <row r="52">
@@ -47930,16 +47930,16 @@
         <v>120</v>
       </c>
       <c r="H52" t="n">
-        <v>18.6029924379068</v>
+        <v>21.8472848496994</v>
       </c>
       <c r="I52" t="n">
-        <v>1.23709699778861</v>
+        <v>1.46201727698676</v>
       </c>
       <c r="J52" t="n">
-        <v>16.1783268768585</v>
+        <v>18.9817836420301</v>
       </c>
       <c r="K52" t="n">
-        <v>21.0276579989552</v>
+        <v>24.7127860573688</v>
       </c>
     </row>
     <row r="53">
@@ -47965,16 +47965,16 @@
         <v>120</v>
       </c>
       <c r="H53" t="n">
-        <v>25.392875970159</v>
+        <v>26.1053948953032</v>
       </c>
       <c r="I53" t="n">
-        <v>1.37610452114268</v>
+        <v>1.59727124092298</v>
       </c>
       <c r="J53" t="n">
-        <v>22.6957606697566</v>
+        <v>22.9748007895526</v>
       </c>
       <c r="K53" t="n">
-        <v>28.0899912705613</v>
+        <v>29.2359890010539</v>
       </c>
     </row>
     <row r="54">
@@ -48000,16 +48000,16 @@
         <v>120</v>
       </c>
       <c r="H54" t="n">
-        <v>22.0867319327548</v>
+        <v>23.7726866114499</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5175909873923</v>
+        <v>1.40114485828625</v>
       </c>
       <c r="J54" t="n">
-        <v>19.1123082542033</v>
+        <v>21.0264931520853</v>
       </c>
       <c r="K54" t="n">
-        <v>25.0611556113063</v>
+        <v>26.5188800708144</v>
       </c>
     </row>
     <row r="55">
@@ -48035,16 +48035,16 @@
         <v>120</v>
       </c>
       <c r="H55" t="n">
-        <v>21.932303734194</v>
+        <v>24.8930497629948</v>
       </c>
       <c r="I55" t="n">
-        <v>1.38133227650813</v>
+        <v>1.33199147764795</v>
       </c>
       <c r="J55" t="n">
-        <v>19.2249422215554</v>
+        <v>22.2823944390906</v>
       </c>
       <c r="K55" t="n">
-        <v>24.6396652468327</v>
+        <v>27.5037050868991</v>
       </c>
     </row>
     <row r="56">
@@ -48070,16 +48070,16 @@
         <v>120</v>
       </c>
       <c r="H56" t="n">
-        <v>22.4754962271579</v>
+        <v>23.668814889039</v>
       </c>
       <c r="I56" t="n">
-        <v>1.52233030004367</v>
+        <v>1.49184647878167</v>
       </c>
       <c r="J56" t="n">
-        <v>19.4917836664983</v>
+        <v>20.744849520164</v>
       </c>
       <c r="K56" t="n">
-        <v>25.4592087878176</v>
+        <v>26.5927802579139</v>
       </c>
     </row>
     <row r="57">
@@ -48105,16 +48105,16 @@
         <v>120</v>
       </c>
       <c r="H57" t="n">
-        <v>26.0833097534298</v>
+        <v>29.5672659030735</v>
       </c>
       <c r="I57" t="n">
-        <v>1.78047398597745</v>
+        <v>1.8411109707436</v>
       </c>
       <c r="J57" t="n">
-        <v>22.5936448655035</v>
+        <v>25.9587547088745</v>
       </c>
       <c r="K57" t="n">
-        <v>29.572974641356</v>
+        <v>33.1757770972725</v>
       </c>
     </row>
     <row r="58">
@@ -48140,16 +48140,16 @@
         <v>120</v>
       </c>
       <c r="H58" t="n">
-        <v>26.4796864578397</v>
+        <v>30.2144390871036</v>
       </c>
       <c r="I58" t="n">
-        <v>1.59167816015792</v>
+        <v>1.65232323478691</v>
       </c>
       <c r="J58" t="n">
-        <v>23.3600545889512</v>
+        <v>26.9759450561025</v>
       </c>
       <c r="K58" t="n">
-        <v>29.5993183267282</v>
+        <v>33.4529331181046</v>
       </c>
     </row>
     <row r="59">
@@ -48175,16 +48175,16 @@
         <v>120</v>
       </c>
       <c r="H59" t="n">
-        <v>26.2797985714501</v>
+        <v>28.038314713126</v>
       </c>
       <c r="I59" t="n">
-        <v>1.08145191650147</v>
+        <v>1.10466020645744</v>
       </c>
       <c r="J59" t="n">
-        <v>24.1601917640954</v>
+        <v>25.8732204933148</v>
       </c>
       <c r="K59" t="n">
-        <v>28.3994053788048</v>
+        <v>30.2034089329371</v>
       </c>
     </row>
     <row r="60">
@@ -48210,16 +48210,16 @@
         <v>120</v>
       </c>
       <c r="H60" t="n">
-        <v>26.2153657169337</v>
+        <v>28.870280473092</v>
       </c>
       <c r="I60" t="n">
-        <v>1.36953639539083</v>
+        <v>1.1385305238937</v>
       </c>
       <c r="J60" t="n">
-        <v>23.5311237064508</v>
+        <v>26.6388016509608</v>
       </c>
       <c r="K60" t="n">
-        <v>28.8996077274165</v>
+        <v>31.1017592952232</v>
       </c>
     </row>
     <row r="61">
@@ -48245,16 +48245,16 @@
         <v>120</v>
       </c>
       <c r="H61" t="n">
-        <v>26.496929638748</v>
+        <v>31.2121576979123</v>
       </c>
       <c r="I61" t="n">
-        <v>2.10290827625932</v>
+        <v>2.06480664700135</v>
       </c>
       <c r="J61" t="n">
-        <v>22.3753051544886</v>
+        <v>27.1652110347508</v>
       </c>
       <c r="K61" t="n">
-        <v>30.6185541230075</v>
+        <v>35.2591043610739</v>
       </c>
     </row>
     <row r="62">
@@ -48280,16 +48280,16 @@
         <v>120</v>
       </c>
       <c r="H62" t="n">
-        <v>25.5421633790931</v>
+        <v>28.7058448199535</v>
       </c>
       <c r="I62" t="n">
-        <v>1.62889203728606</v>
+        <v>1.55443196790266</v>
       </c>
       <c r="J62" t="n">
-        <v>22.3495936513083</v>
+        <v>25.6592141464465</v>
       </c>
       <c r="K62" t="n">
-        <v>28.7347331068778</v>
+        <v>31.7524754934604</v>
       </c>
     </row>
     <row r="63">
@@ -48315,16 +48315,16 @@
         <v>120</v>
       </c>
       <c r="H63" t="n">
-        <v>23.9740635202784</v>
+        <v>27.2765674584216</v>
       </c>
       <c r="I63" t="n">
-        <v>2.01898913563832</v>
+        <v>1.93515405596038</v>
       </c>
       <c r="J63" t="n">
-        <v>20.0169175292497</v>
+        <v>23.4837352042026</v>
       </c>
       <c r="K63" t="n">
-        <v>27.9312095113072</v>
+        <v>31.0693997126405</v>
       </c>
     </row>
     <row r="64">
@@ -48350,16 +48350,16 @@
         <v>120</v>
       </c>
       <c r="H64" t="n">
-        <v>30.9990019661295</v>
+        <v>32.0885319454321</v>
       </c>
       <c r="I64" t="n">
-        <v>1.77361586147726</v>
+        <v>1.75166674402539</v>
       </c>
       <c r="J64" t="n">
-        <v>27.5227787552251</v>
+        <v>28.6553282142258</v>
       </c>
       <c r="K64" t="n">
-        <v>34.4752251770339</v>
+        <v>35.5217356766384</v>
       </c>
     </row>
     <row r="65">
@@ -48385,16 +48385,16 @@
         <v>120</v>
       </c>
       <c r="H65" t="n">
-        <v>26.0020731469573</v>
+        <v>28.1428928879576</v>
       </c>
       <c r="I65" t="n">
-        <v>2.00641838356009</v>
+        <v>2.45589365941296</v>
       </c>
       <c r="J65" t="n">
-        <v>22.0695653772604</v>
+        <v>23.3294297656479</v>
       </c>
       <c r="K65" t="n">
-        <v>29.9345809166541</v>
+        <v>32.9563560102672</v>
       </c>
     </row>
     <row r="66">
@@ -48420,16 +48420,16 @@
         <v>120</v>
       </c>
       <c r="H66" t="n">
-        <v>29.2288752435523</v>
+        <v>31.4731093487105</v>
       </c>
       <c r="I66" t="n">
-        <v>1.47621453228225</v>
+        <v>1.34556748990474</v>
       </c>
       <c r="J66" t="n">
-        <v>26.3355479268245</v>
+        <v>28.8358455297292</v>
       </c>
       <c r="K66" t="n">
-        <v>32.1222025602802</v>
+        <v>34.1103731676917</v>
       </c>
     </row>
     <row r="67">
@@ -48455,16 +48455,16 @@
         <v>120</v>
       </c>
       <c r="H67" t="n">
-        <v>24.776401341478</v>
+        <v>28.426732665238</v>
       </c>
       <c r="I67" t="n">
-        <v>1.33845941853246</v>
+        <v>1.67324720044866</v>
       </c>
       <c r="J67" t="n">
-        <v>22.153069086386</v>
+        <v>25.1472284151261</v>
       </c>
       <c r="K67" t="n">
-        <v>27.3997335965701</v>
+        <v>31.7062369153498</v>
       </c>
     </row>
     <row r="68">
@@ -48490,16 +48490,16 @@
         <v>122</v>
       </c>
       <c r="H68" t="n">
-        <v>16.9692445147553</v>
+        <v>18.0037151647453</v>
       </c>
       <c r="I68" t="n">
-        <v>0.291019167794471</v>
+        <v>0.310441507245326</v>
       </c>
       <c r="J68" t="n">
-        <v>16.3988574270673</v>
+        <v>17.3952609912382</v>
       </c>
       <c r="K68" t="n">
-        <v>17.5396316024433</v>
+        <v>18.6121693382525</v>
       </c>
     </row>
     <row r="69">
@@ -48525,16 +48525,16 @@
         <v>122</v>
       </c>
       <c r="H69" t="n">
-        <v>16.5153018899174</v>
+        <v>17.2346155055521</v>
       </c>
       <c r="I69" t="n">
-        <v>0.586324481576576</v>
+        <v>0.759448875088263</v>
       </c>
       <c r="J69" t="n">
-        <v>15.3661270227732</v>
+        <v>15.7461230622797</v>
       </c>
       <c r="K69" t="n">
-        <v>17.6644767570616</v>
+        <v>18.7231079488246</v>
       </c>
     </row>
     <row r="70">
@@ -48560,16 +48560,16 @@
         <v>122</v>
       </c>
       <c r="H70" t="n">
-        <v>14.9414329979591</v>
+        <v>15.6084551418002</v>
       </c>
       <c r="I70" t="n">
-        <v>0.398571424380559</v>
+        <v>0.448203985283267</v>
       </c>
       <c r="J70" t="n">
-        <v>14.1602473609064</v>
+        <v>14.7299914729177</v>
       </c>
       <c r="K70" t="n">
-        <v>15.7226186350119</v>
+        <v>16.4869188106827</v>
       </c>
     </row>
     <row r="71">
@@ -48595,16 +48595,16 @@
         <v>122</v>
       </c>
       <c r="H71" t="n">
-        <v>17.9736858745817</v>
+        <v>19.0843139834598</v>
       </c>
       <c r="I71" t="n">
-        <v>0.615955722723978</v>
+        <v>0.644627969123808</v>
       </c>
       <c r="J71" t="n">
-        <v>16.7664348419714</v>
+        <v>17.82086638055</v>
       </c>
       <c r="K71" t="n">
-        <v>19.180936907192</v>
+        <v>20.3477615863697</v>
       </c>
     </row>
     <row r="72">
@@ -48630,16 +48630,16 @@
         <v>122</v>
       </c>
       <c r="H72" t="n">
-        <v>17.5794207301004</v>
+        <v>19.4762573082577</v>
       </c>
       <c r="I72" t="n">
-        <v>0.769193284858449</v>
+        <v>0.757201368561055</v>
       </c>
       <c r="J72" t="n">
-        <v>16.0718295946278</v>
+        <v>17.9921698968336</v>
       </c>
       <c r="K72" t="n">
-        <v>19.087011865573</v>
+        <v>20.9603447196818</v>
       </c>
     </row>
     <row r="73">
@@ -48665,16 +48665,16 @@
         <v>122</v>
       </c>
       <c r="H73" t="n">
-        <v>19.15619961295</v>
+        <v>20.131686164605</v>
       </c>
       <c r="I73" t="n">
-        <v>0.583176442572403</v>
+        <v>0.708133149052512</v>
       </c>
       <c r="J73" t="n">
-        <v>18.0131947888759</v>
+        <v>18.7437706962032</v>
       </c>
       <c r="K73" t="n">
-        <v>20.2992044370241</v>
+        <v>21.5196016330069</v>
       </c>
     </row>
     <row r="74">
@@ -48700,16 +48700,16 @@
         <v>122</v>
       </c>
       <c r="H74" t="n">
-        <v>19.7389210475134</v>
+        <v>20.3870808509686</v>
       </c>
       <c r="I74" t="n">
-        <v>1.4232062367102</v>
+        <v>1.23231749421633</v>
       </c>
       <c r="J74" t="n">
-        <v>16.9494880809886</v>
+        <v>17.9717829447859</v>
       </c>
       <c r="K74" t="n">
-        <v>22.5283540140381</v>
+        <v>22.8023787571512</v>
       </c>
     </row>
     <row r="75">
@@ -48735,16 +48735,16 @@
         <v>122</v>
       </c>
       <c r="H75" t="n">
-        <v>17.4380929533676</v>
+        <v>18.6560970922763</v>
       </c>
       <c r="I75" t="n">
-        <v>0.989110200472431</v>
+        <v>1.03187625993395</v>
       </c>
       <c r="J75" t="n">
-        <v>15.4994725837005</v>
+        <v>16.6336567863039</v>
       </c>
       <c r="K75" t="n">
-        <v>19.3767133230348</v>
+        <v>20.6785373982487</v>
       </c>
     </row>
     <row r="76">
@@ -48770,16 +48770,16 @@
         <v>122</v>
       </c>
       <c r="H76" t="n">
-        <v>16.005822017955</v>
+        <v>17.733526534826</v>
       </c>
       <c r="I76" t="n">
-        <v>0.906189927448964</v>
+        <v>1.14272727840062</v>
       </c>
       <c r="J76" t="n">
-        <v>14.2297223970021</v>
+        <v>15.4938222250093</v>
       </c>
       <c r="K76" t="n">
-        <v>17.7819216389079</v>
+        <v>19.9732308446427</v>
       </c>
     </row>
     <row r="77">
@@ -48805,16 +48805,16 @@
         <v>122</v>
       </c>
       <c r="H77" t="n">
-        <v>15.630888553665</v>
+        <v>16.1587801837674</v>
       </c>
       <c r="I77" t="n">
-        <v>0.72779521429941</v>
+        <v>0.828668751481233</v>
       </c>
       <c r="J77" t="n">
-        <v>14.2044361455176</v>
+        <v>14.5346192757504</v>
       </c>
       <c r="K77" t="n">
-        <v>17.0573409618125</v>
+        <v>17.7829410917844</v>
       </c>
     </row>
     <row r="78">
@@ -48840,16 +48840,16 @@
         <v>122</v>
       </c>
       <c r="H78" t="n">
-        <v>15.9668440170081</v>
+        <v>15.9825217229165</v>
       </c>
       <c r="I78" t="n">
-        <v>1.11760629550313</v>
+        <v>1.49443275573342</v>
       </c>
       <c r="J78" t="n">
-        <v>13.7763759289268</v>
+        <v>13.053487344362</v>
       </c>
       <c r="K78" t="n">
-        <v>18.1573121050895</v>
+        <v>18.9115561014709</v>
       </c>
     </row>
     <row r="79">
@@ -48875,16 +48875,16 @@
         <v>122</v>
       </c>
       <c r="H79" t="n">
-        <v>18.6596416835975</v>
+        <v>19.6446160458583</v>
       </c>
       <c r="I79" t="n">
-        <v>0.689778751516097</v>
+        <v>0.825428384306933</v>
       </c>
       <c r="J79" t="n">
-        <v>17.3077001733249</v>
+        <v>18.0268061407996</v>
       </c>
       <c r="K79" t="n">
-        <v>20.01158319387</v>
+        <v>21.2624259509169</v>
       </c>
     </row>
     <row r="80">
@@ -48910,16 +48910,16 @@
         <v>122</v>
       </c>
       <c r="H80" t="n">
-        <v>16.2582250082099</v>
+        <v>17.8044376551524</v>
       </c>
       <c r="I80" t="n">
-        <v>1.09850061318384</v>
+        <v>1.15357061581492</v>
       </c>
       <c r="J80" t="n">
-        <v>14.1052033693744</v>
+        <v>15.5434807945315</v>
       </c>
       <c r="K80" t="n">
-        <v>18.4112466470454</v>
+        <v>20.0653945157734</v>
       </c>
     </row>
     <row r="81">
@@ -48945,16 +48945,16 @@
         <v>122</v>
       </c>
       <c r="H81" t="n">
-        <v>11.622204271997</v>
+        <v>12.510068805281</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9872263030961</v>
+        <v>1.08283145278518</v>
       </c>
       <c r="J81" t="n">
-        <v>9.68727627333806</v>
+        <v>10.3877581564949</v>
       </c>
       <c r="K81" t="n">
-        <v>13.557132270656</v>
+        <v>14.6323794540672</v>
       </c>
     </row>
     <row r="82">
@@ -48980,16 +48980,16 @@
         <v>122</v>
       </c>
       <c r="H82" t="n">
-        <v>14.2197221554757</v>
+        <v>14.4111843319946</v>
       </c>
       <c r="I82" t="n">
-        <v>1.2332358435268</v>
+        <v>1.11590846563793</v>
       </c>
       <c r="J82" t="n">
-        <v>11.8026243177193</v>
+        <v>12.2240439293009</v>
       </c>
       <c r="K82" t="n">
-        <v>16.6368199932321</v>
+        <v>16.5983247346883</v>
       </c>
     </row>
     <row r="83">
@@ -49015,16 +49015,16 @@
         <v>122</v>
       </c>
       <c r="H83" t="n">
-        <v>15.5651072860301</v>
+        <v>16.4376370477229</v>
       </c>
       <c r="I83" t="n">
-        <v>1.05725021638762</v>
+        <v>1.28925243298848</v>
       </c>
       <c r="J83" t="n">
-        <v>13.4929349392632</v>
+        <v>13.9107487120848</v>
       </c>
       <c r="K83" t="n">
-        <v>17.637279632797</v>
+        <v>18.964525383361</v>
       </c>
     </row>
     <row r="84">
@@ -49050,16 +49050,16 @@
         <v>122</v>
       </c>
       <c r="H84" t="n">
-        <v>15.2559279524431</v>
+        <v>15.5086903995916</v>
       </c>
       <c r="I84" t="n">
-        <v>1.10676169278211</v>
+        <v>1.11439643185542</v>
       </c>
       <c r="J84" t="n">
-        <v>13.0867148951216</v>
+        <v>13.324513528655</v>
       </c>
       <c r="K84" t="n">
-        <v>17.4251410097646</v>
+        <v>17.6928672705281</v>
       </c>
     </row>
     <row r="85">
@@ -49085,16 +49085,16 @@
         <v>122</v>
       </c>
       <c r="H85" t="n">
-        <v>12.8281700841064</v>
+        <v>14.3501201810637</v>
       </c>
       <c r="I85" t="n">
-        <v>0.861783012040469</v>
+        <v>0.972214210242711</v>
       </c>
       <c r="J85" t="n">
-        <v>11.1391064180187</v>
+        <v>12.4446153437299</v>
       </c>
       <c r="K85" t="n">
-        <v>14.5172337501942</v>
+        <v>16.2556250183975</v>
       </c>
     </row>
     <row r="86">
@@ -49120,16 +49120,16 @@
         <v>122</v>
       </c>
       <c r="H86" t="n">
-        <v>17.1104290263129</v>
+        <v>17.4637210494633</v>
       </c>
       <c r="I86" t="n">
-        <v>1.1014482862878</v>
+        <v>1.2544004903005</v>
       </c>
       <c r="J86" t="n">
-        <v>14.9516300543555</v>
+        <v>15.0051412662849</v>
       </c>
       <c r="K86" t="n">
-        <v>19.2692279982704</v>
+        <v>19.9223008326417</v>
       </c>
     </row>
     <row r="87">
@@ -49155,16 +49155,16 @@
         <v>122</v>
       </c>
       <c r="H87" t="n">
-        <v>15.2763692523283</v>
+        <v>15.278991891474</v>
       </c>
       <c r="I87" t="n">
-        <v>0.907983857905272</v>
+        <v>0.908376375948297</v>
       </c>
       <c r="J87" t="n">
-        <v>13.4967535922902</v>
+        <v>13.4986069102084</v>
       </c>
       <c r="K87" t="n">
-        <v>17.0559849123663</v>
+        <v>17.0593768727397</v>
       </c>
     </row>
     <row r="88">
@@ -49190,16 +49190,16 @@
         <v>122</v>
       </c>
       <c r="H88" t="n">
-        <v>15.5601063575321</v>
+        <v>16.5634998476394</v>
       </c>
       <c r="I88" t="n">
-        <v>1.04788608262714</v>
+        <v>1.10816194231935</v>
       </c>
       <c r="J88" t="n">
-        <v>13.5062873756821</v>
+        <v>14.3915423516555</v>
       </c>
       <c r="K88" t="n">
-        <v>17.613925339382</v>
+        <v>18.7354573436233</v>
       </c>
     </row>
     <row r="89">
@@ -49225,16 +49225,16 @@
         <v>122</v>
       </c>
       <c r="H89" t="n">
-        <v>15.489047813978</v>
+        <v>16.1644205472568</v>
       </c>
       <c r="I89" t="n">
-        <v>0.934584425431228</v>
+        <v>1.02251391403325</v>
       </c>
       <c r="J89" t="n">
-        <v>13.6572959996207</v>
+        <v>14.1603301020605</v>
       </c>
       <c r="K89" t="n">
-        <v>17.3207996283352</v>
+        <v>18.168510992453</v>
       </c>
     </row>
     <row r="90">
@@ -49260,16 +49260,16 @@
         <v>122</v>
       </c>
       <c r="H90" t="n">
-        <v>17.0890646421716</v>
+        <v>18.0104397415599</v>
       </c>
       <c r="I90" t="n">
-        <v>1.22199065887061</v>
+        <v>1.38874530788698</v>
       </c>
       <c r="J90" t="n">
-        <v>14.6940069613409</v>
+        <v>15.2885489544024</v>
       </c>
       <c r="K90" t="n">
-        <v>19.4841223230024</v>
+        <v>20.7323305287174</v>
       </c>
     </row>
     <row r="91">
@@ -49295,16 +49295,16 @@
         <v>122</v>
       </c>
       <c r="H91" t="n">
-        <v>18.8321229193334</v>
+        <v>20.751577771483</v>
       </c>
       <c r="I91" t="n">
-        <v>1.03578206477804</v>
+        <v>1.03104579630956</v>
       </c>
       <c r="J91" t="n">
-        <v>16.8020273765359</v>
+        <v>18.7307651443048</v>
       </c>
       <c r="K91" t="n">
-        <v>20.8622184621309</v>
+        <v>22.7723903986612</v>
       </c>
     </row>
     <row r="92">
@@ -49330,16 +49330,16 @@
         <v>122</v>
       </c>
       <c r="H92" t="n">
-        <v>18.840863858552</v>
+        <v>18.9866911356023</v>
       </c>
       <c r="I92" t="n">
-        <v>0.885262567624298</v>
+        <v>0.92294168013181</v>
       </c>
       <c r="J92" t="n">
-        <v>17.1057811091469</v>
+        <v>17.1777586827131</v>
       </c>
       <c r="K92" t="n">
-        <v>20.575946607957</v>
+        <v>20.7956235884915</v>
       </c>
     </row>
     <row r="93">
@@ -49365,16 +49365,16 @@
         <v>122</v>
       </c>
       <c r="H93" t="n">
-        <v>18.0448227948751</v>
+        <v>19.4898609502054</v>
       </c>
       <c r="I93" t="n">
-        <v>0.970328546323578</v>
+        <v>0.980106799716403</v>
       </c>
       <c r="J93" t="n">
-        <v>16.1430137909098</v>
+        <v>17.5688869217585</v>
       </c>
       <c r="K93" t="n">
-        <v>19.9466317988404</v>
+        <v>21.4108349786524</v>
       </c>
     </row>
     <row r="94">
@@ -49400,16 +49400,16 @@
         <v>122</v>
       </c>
       <c r="H94" t="n">
-        <v>17.8860259839901</v>
+        <v>20.474378037181</v>
       </c>
       <c r="I94" t="n">
-        <v>1.43184367237378</v>
+        <v>1.49381315904424</v>
       </c>
       <c r="J94" t="n">
-        <v>15.079663954646</v>
+        <v>17.5465580458223</v>
       </c>
       <c r="K94" t="n">
-        <v>20.6923880133343</v>
+        <v>23.4021980285398</v>
       </c>
     </row>
     <row r="95">
@@ -49435,16 +49435,16 @@
         <v>122</v>
       </c>
       <c r="H95" t="n">
-        <v>18.3703464842153</v>
+        <v>19.644781711325</v>
       </c>
       <c r="I95" t="n">
-        <v>1.04320517886849</v>
+        <v>0.957755965473966</v>
       </c>
       <c r="J95" t="n">
-        <v>16.3257019051474</v>
+        <v>17.7676145130177</v>
       </c>
       <c r="K95" t="n">
-        <v>20.4149910632832</v>
+        <v>21.5219489096324</v>
       </c>
     </row>
     <row r="96">
@@ -49470,16 +49470,16 @@
         <v>122</v>
       </c>
       <c r="H96" t="n">
-        <v>16.7198414725066</v>
+        <v>18.3729292101516</v>
       </c>
       <c r="I96" t="n">
-        <v>1.32125224444606</v>
+        <v>1.2510436566415</v>
       </c>
       <c r="J96" t="n">
-        <v>14.1302346588996</v>
+        <v>15.920928700047</v>
       </c>
       <c r="K96" t="n">
-        <v>19.3094482861136</v>
+        <v>20.8249297202563</v>
       </c>
     </row>
     <row r="97">
@@ -49505,16 +49505,16 @@
         <v>122</v>
       </c>
       <c r="H97" t="n">
-        <v>21.3062195904432</v>
+        <v>21.6352593109274</v>
       </c>
       <c r="I97" t="n">
-        <v>1.17930423654067</v>
+        <v>1.29240574491814</v>
       </c>
       <c r="J97" t="n">
-        <v>18.9948257600079</v>
+        <v>19.1021905974752</v>
       </c>
       <c r="K97" t="n">
-        <v>23.6176134208784</v>
+        <v>24.1683280243796</v>
       </c>
     </row>
     <row r="98">
@@ -49540,16 +49540,16 @@
         <v>122</v>
       </c>
       <c r="H98" t="n">
-        <v>16.8102211006028</v>
+        <v>18.6593849588524</v>
       </c>
       <c r="I98" t="n">
-        <v>1.27024664936268</v>
+        <v>1.74418537787679</v>
       </c>
       <c r="J98" t="n">
-        <v>14.3205834163693</v>
+        <v>15.2408444358525</v>
       </c>
       <c r="K98" t="n">
-        <v>19.2998587848363</v>
+        <v>22.0779254818523</v>
       </c>
     </row>
     <row r="99">
@@ -49575,16 +49575,16 @@
         <v>122</v>
       </c>
       <c r="H99" t="n">
-        <v>19.5524182528254</v>
+        <v>20.1731751701664</v>
       </c>
       <c r="I99" t="n">
-        <v>0.966094983045712</v>
+        <v>1.0432030540225</v>
       </c>
       <c r="J99" t="n">
-        <v>17.658906880411</v>
+        <v>18.1285347557202</v>
       </c>
       <c r="K99" t="n">
-        <v>21.4459296252398</v>
+        <v>22.2178155846127</v>
       </c>
     </row>
     <row r="100">
@@ -49610,16 +49610,16 @@
         <v>122</v>
       </c>
       <c r="H100" t="n">
-        <v>19.6197151452196</v>
+        <v>20.7822393204747</v>
       </c>
       <c r="I100" t="n">
-        <v>1.13406059497987</v>
+        <v>1.59091823803657</v>
       </c>
       <c r="J100" t="n">
-        <v>17.396997222773</v>
+        <v>17.6640968715751</v>
       </c>
       <c r="K100" t="n">
-        <v>21.8424330676662</v>
+        <v>23.9003817693743</v>
       </c>
     </row>
     <row r="101">
@@ -49645,16 +49645,16 @@
         <v>123</v>
       </c>
       <c r="H101" t="n">
-        <v>13.0988125741169</v>
+        <v>16.0296994351821</v>
       </c>
       <c r="I101" t="n">
-        <v>0.27057910182504</v>
+        <v>0.2937101956653</v>
       </c>
       <c r="J101" t="n">
-        <v>12.5684872795706</v>
+        <v>15.4540380297859</v>
       </c>
       <c r="K101" t="n">
-        <v>13.6291378686632</v>
+        <v>16.6053608405783</v>
       </c>
     </row>
     <row r="102">
@@ -49680,16 +49680,16 @@
         <v>123</v>
       </c>
       <c r="H102" t="n">
-        <v>16.868818727695</v>
+        <v>19.1424493886232</v>
       </c>
       <c r="I102" t="n">
-        <v>0.645746910554535</v>
+        <v>0.707617469965311</v>
       </c>
       <c r="J102" t="n">
-        <v>15.6031780398802</v>
+        <v>17.7555446326599</v>
       </c>
       <c r="K102" t="n">
-        <v>18.1344594155099</v>
+        <v>20.5293541445866</v>
       </c>
     </row>
     <row r="103">
@@ -49715,16 +49715,16 @@
         <v>123</v>
       </c>
       <c r="H103" t="n">
-        <v>14.0241167143871</v>
+        <v>16.8214277360523</v>
       </c>
       <c r="I103" t="n">
-        <v>0.370787886502586</v>
+        <v>0.407865199606669</v>
       </c>
       <c r="J103" t="n">
-        <v>13.2973858109383</v>
+        <v>16.022026634276</v>
       </c>
       <c r="K103" t="n">
-        <v>14.7508476178359</v>
+        <v>17.6208288378286</v>
       </c>
     </row>
     <row r="104">
@@ -49750,16 +49750,16 @@
         <v>123</v>
       </c>
       <c r="H104" t="n">
-        <v>12.7135513056898</v>
+        <v>15.688494300269</v>
       </c>
       <c r="I104" t="n">
-        <v>0.492843196452625</v>
+        <v>0.536097634584208</v>
       </c>
       <c r="J104" t="n">
-        <v>11.7475963906171</v>
+        <v>14.6377622442869</v>
       </c>
       <c r="K104" t="n">
-        <v>13.6795062207626</v>
+        <v>16.7392263562512</v>
       </c>
     </row>
     <row r="105">
@@ -49785,16 +49785,16 @@
         <v>123</v>
       </c>
       <c r="H105" t="n">
-        <v>10.8505573953281</v>
+        <v>13.8839458608764</v>
       </c>
       <c r="I105" t="n">
-        <v>0.538647235454557</v>
+        <v>0.543840653420147</v>
       </c>
       <c r="J105" t="n">
-        <v>9.79482821346509</v>
+        <v>12.8180377668442</v>
       </c>
       <c r="K105" t="n">
-        <v>11.9062865771911</v>
+        <v>14.9498539549086</v>
       </c>
     </row>
     <row r="106">
@@ -49820,16 +49820,16 @@
         <v>123</v>
       </c>
       <c r="H106" t="n">
-        <v>13.3966035770262</v>
+        <v>16.7451591784418</v>
       </c>
       <c r="I106" t="n">
-        <v>0.523363190200219</v>
+        <v>0.569305555859126</v>
       </c>
       <c r="J106" t="n">
-        <v>12.3708305733998</v>
+        <v>15.6293407927593</v>
       </c>
       <c r="K106" t="n">
-        <v>14.4223765806526</v>
+        <v>17.8609775641242</v>
       </c>
     </row>
     <row r="107">
@@ -49855,16 +49855,16 @@
         <v>123</v>
       </c>
       <c r="H107" t="n">
-        <v>13.2079982520789</v>
+        <v>16.376135878663</v>
       </c>
       <c r="I107" t="n">
-        <v>0.74095274441504</v>
+        <v>1.05431412282859</v>
       </c>
       <c r="J107" t="n">
-        <v>11.7557575587793</v>
+        <v>14.309718169527</v>
       </c>
       <c r="K107" t="n">
-        <v>14.6602389453785</v>
+        <v>18.442553587799</v>
       </c>
     </row>
     <row r="108">
@@ -49890,16 +49890,16 @@
         <v>123</v>
       </c>
       <c r="H108" t="n">
-        <v>15.0614734597572</v>
+        <v>17.0237603150454</v>
       </c>
       <c r="I108" t="n">
-        <v>1.07637617276801</v>
+        <v>1.23785570895832</v>
       </c>
       <c r="J108" t="n">
-        <v>12.9518149273148</v>
+        <v>14.5976077074298</v>
       </c>
       <c r="K108" t="n">
-        <v>17.1711319921996</v>
+        <v>19.449912922661</v>
       </c>
     </row>
     <row r="109">
@@ -49925,16 +49925,16 @@
         <v>123</v>
       </c>
       <c r="H109" t="n">
-        <v>18.0013914307368</v>
+        <v>20.6639110549102</v>
       </c>
       <c r="I109" t="n">
-        <v>1.11045529131544</v>
+        <v>1.24562670540486</v>
       </c>
       <c r="J109" t="n">
-        <v>15.8249390533166</v>
+        <v>18.2225275741354</v>
       </c>
       <c r="K109" t="n">
-        <v>20.177843808157</v>
+        <v>23.105294535685</v>
       </c>
     </row>
     <row r="110">
@@ -49960,16 +49960,16 @@
         <v>123</v>
       </c>
       <c r="H110" t="n">
-        <v>17.3543783420663</v>
+        <v>20.1474881630398</v>
       </c>
       <c r="I110" t="n">
-        <v>1.00026767655953</v>
+        <v>0.814416625415196</v>
       </c>
       <c r="J110" t="n">
-        <v>15.3938897211101</v>
+        <v>18.5512609088153</v>
       </c>
       <c r="K110" t="n">
-        <v>19.3148669630226</v>
+        <v>21.7437154172642</v>
       </c>
     </row>
     <row r="111">
@@ -49995,16 +49995,16 @@
         <v>123</v>
       </c>
       <c r="H111" t="n">
-        <v>17.3923311257216</v>
+        <v>19.0233503469729</v>
       </c>
       <c r="I111" t="n">
-        <v>1.07287727438114</v>
+        <v>1.17121228516846</v>
       </c>
       <c r="J111" t="n">
-        <v>15.2895303081031</v>
+        <v>16.7278164497919</v>
       </c>
       <c r="K111" t="n">
-        <v>19.4951319433401</v>
+        <v>21.3188842441539</v>
       </c>
     </row>
     <row r="112">
@@ -50030,16 +50030,16 @@
         <v>123</v>
       </c>
       <c r="H112" t="n">
-        <v>16.5646677935532</v>
+        <v>19.9377742820351</v>
       </c>
       <c r="I112" t="n">
-        <v>1.10097250451415</v>
+        <v>0.890037989911915</v>
       </c>
       <c r="J112" t="n">
-        <v>14.4068013367365</v>
+        <v>18.1933318769353</v>
       </c>
       <c r="K112" t="n">
-        <v>18.7225342503698</v>
+        <v>21.6822166871349</v>
       </c>
     </row>
     <row r="113">
@@ -50065,16 +50065,16 @@
         <v>123</v>
       </c>
       <c r="H113" t="n">
-        <v>15.355382476997</v>
+        <v>19.7537998576293</v>
       </c>
       <c r="I113" t="n">
-        <v>0.946738072223484</v>
+        <v>1.33865874033273</v>
       </c>
       <c r="J113" t="n">
-        <v>13.4998099526461</v>
+        <v>17.1300769389874</v>
       </c>
       <c r="K113" t="n">
-        <v>17.2109550013479</v>
+        <v>22.3775227762712</v>
       </c>
     </row>
     <row r="114">
@@ -50100,16 +50100,16 @@
         <v>123</v>
       </c>
       <c r="H114" t="n">
-        <v>14.742047727616</v>
+        <v>17.0913574795402</v>
       </c>
       <c r="I114" t="n">
-        <v>0.885105092897285</v>
+        <v>0.915814735522897</v>
       </c>
       <c r="J114" t="n">
-        <v>13.0072736230043</v>
+        <v>15.2963935814042</v>
       </c>
       <c r="K114" t="n">
-        <v>16.4768218322276</v>
+        <v>18.8863213776762</v>
       </c>
     </row>
     <row r="115">
@@ -50135,16 +50135,16 @@
         <v>123</v>
       </c>
       <c r="H115" t="n">
-        <v>13.2004182141755</v>
+        <v>15.1132190008804</v>
       </c>
       <c r="I115" t="n">
-        <v>0.898801421616426</v>
+        <v>0.858957177048832</v>
       </c>
       <c r="J115" t="n">
-        <v>11.4387997985539</v>
+        <v>13.4296938696025</v>
       </c>
       <c r="K115" t="n">
-        <v>14.9620366297971</v>
+        <v>16.7967441321583</v>
       </c>
     </row>
     <row r="116">
@@ -50170,16 +50170,16 @@
         <v>123</v>
       </c>
       <c r="H116" t="n">
-        <v>12.2821458999942</v>
+        <v>14.909207292667</v>
       </c>
       <c r="I116" t="n">
-        <v>0.72068810891339</v>
+        <v>0.817052159401287</v>
       </c>
       <c r="J116" t="n">
-        <v>10.8696231624377</v>
+        <v>13.3078144867498</v>
       </c>
       <c r="K116" t="n">
-        <v>13.6946686375507</v>
+        <v>16.5106000985842</v>
       </c>
     </row>
     <row r="117">
@@ -50205,16 +50205,16 @@
         <v>123</v>
       </c>
       <c r="H117" t="n">
-        <v>12.8791743278226</v>
+        <v>16.9017406251488</v>
       </c>
       <c r="I117" t="n">
-        <v>0.811062143455942</v>
+        <v>1.03561521294129</v>
       </c>
       <c r="J117" t="n">
-        <v>11.289521737425</v>
+        <v>14.8719721059421</v>
       </c>
       <c r="K117" t="n">
-        <v>14.4688269182201</v>
+        <v>18.9315091443555</v>
       </c>
     </row>
     <row r="118">
@@ -50240,16 +50240,16 @@
         <v>123</v>
       </c>
       <c r="H118" t="n">
-        <v>13.1854801855487</v>
+        <v>16.2299696607827</v>
       </c>
       <c r="I118" t="n">
-        <v>0.887730769530273</v>
+        <v>1.05630944183293</v>
       </c>
       <c r="J118" t="n">
-        <v>11.4455598493013</v>
+        <v>14.1596411982606</v>
       </c>
       <c r="K118" t="n">
-        <v>14.9254005217961</v>
+        <v>18.3002981233049</v>
       </c>
     </row>
     <row r="119">
@@ -50275,16 +50275,16 @@
         <v>123</v>
       </c>
       <c r="H119" t="n">
-        <v>15.609380359152</v>
+        <v>17.7395283209768</v>
       </c>
       <c r="I119" t="n">
-        <v>1.10537575774635</v>
+        <v>1.1277375504252</v>
       </c>
       <c r="J119" t="n">
-        <v>13.4428836845855</v>
+        <v>15.52920333813</v>
       </c>
       <c r="K119" t="n">
-        <v>17.7758770337185</v>
+        <v>19.9498533038236</v>
       </c>
     </row>
     <row r="120">
@@ -50310,16 +50310,16 @@
         <v>123</v>
       </c>
       <c r="H120" t="n">
-        <v>15.1445519615557</v>
+        <v>17.5173368360396</v>
       </c>
       <c r="I120" t="n">
-        <v>1.34628784052378</v>
+        <v>1.32371888381702</v>
       </c>
       <c r="J120" t="n">
-        <v>12.5058762813048</v>
+        <v>14.9228954981027</v>
       </c>
       <c r="K120" t="n">
-        <v>17.7832276418065</v>
+        <v>20.1117781739765</v>
       </c>
     </row>
     <row r="121">
@@ -50345,16 +50345,16 @@
         <v>123</v>
       </c>
       <c r="H121" t="n">
-        <v>14.6537656587797</v>
+        <v>18.7672335466739</v>
       </c>
       <c r="I121" t="n">
-        <v>1.11618152263733</v>
+        <v>1.44072013919666</v>
       </c>
       <c r="J121" t="n">
-        <v>12.4660900742015</v>
+        <v>15.9434739620469</v>
       </c>
       <c r="K121" t="n">
-        <v>16.841441243358</v>
+        <v>21.5909931313009</v>
       </c>
     </row>
     <row r="122">
@@ -50380,16 +50380,16 @@
         <v>123</v>
       </c>
       <c r="H122" t="n">
-        <v>14.2362517340956</v>
+        <v>17.3783443255969</v>
       </c>
       <c r="I122" t="n">
-        <v>0.999950623477144</v>
+        <v>1.13906377165048</v>
       </c>
       <c r="J122" t="n">
-        <v>12.276384525762</v>
+        <v>15.1458203570676</v>
       </c>
       <c r="K122" t="n">
-        <v>16.1961189424292</v>
+        <v>19.6108682941262</v>
       </c>
     </row>
     <row r="123">
@@ -50415,16 +50415,16 @@
         <v>123</v>
       </c>
       <c r="H123" t="n">
-        <v>12.4509133637832</v>
+        <v>15.3721501483761</v>
       </c>
       <c r="I123" t="n">
-        <v>0.718690173950251</v>
+        <v>0.767237421016139</v>
       </c>
       <c r="J123" t="n">
-        <v>11.0423065067979</v>
+        <v>13.868392435593</v>
       </c>
       <c r="K123" t="n">
-        <v>13.8595202207685</v>
+        <v>16.8759078611591</v>
       </c>
     </row>
     <row r="124">
@@ -50450,16 +50450,16 @@
         <v>123</v>
       </c>
       <c r="H124" t="n">
-        <v>12.1639247428321</v>
+        <v>15.141946278934</v>
       </c>
       <c r="I124" t="n">
-        <v>0.87898354143646</v>
+        <v>1.02351004256341</v>
       </c>
       <c r="J124" t="n">
-        <v>10.4411486586132</v>
+        <v>13.1359034576946</v>
       </c>
       <c r="K124" t="n">
-        <v>13.886700827051</v>
+        <v>17.1479891001733</v>
       </c>
     </row>
     <row r="125">
@@ -50485,16 +50485,16 @@
         <v>123</v>
       </c>
       <c r="H125" t="n">
-        <v>14.2057884632946</v>
+        <v>16.6176992670076</v>
       </c>
       <c r="I125" t="n">
-        <v>0.790613531978214</v>
+        <v>0.936630638943922</v>
       </c>
       <c r="J125" t="n">
-        <v>12.6562144149273</v>
+        <v>14.7819369478607</v>
       </c>
       <c r="K125" t="n">
-        <v>15.7553625116619</v>
+        <v>18.4534615861544</v>
       </c>
     </row>
     <row r="126">
@@ -50520,16 +50520,16 @@
         <v>123</v>
       </c>
       <c r="H126" t="n">
-        <v>12.0464591080336</v>
+        <v>15.3301082949275</v>
       </c>
       <c r="I126" t="n">
-        <v>0.79430981629844</v>
+        <v>0.841591663455864</v>
       </c>
       <c r="J126" t="n">
-        <v>10.489640475522</v>
+        <v>13.6806189448649</v>
       </c>
       <c r="K126" t="n">
-        <v>13.6032777405451</v>
+        <v>16.9795976449902</v>
       </c>
     </row>
     <row r="127">
@@ -50555,16 +50555,16 @@
         <v>123</v>
       </c>
       <c r="H127" t="n">
-        <v>13.0272973931481</v>
+        <v>15.7921477366432</v>
       </c>
       <c r="I127" t="n">
-        <v>0.935599654492832</v>
+        <v>1.04098087648387</v>
       </c>
       <c r="J127" t="n">
-        <v>11.1935557663941</v>
+        <v>13.7518627101398</v>
       </c>
       <c r="K127" t="n">
-        <v>14.8610390199022</v>
+        <v>17.8324327631465</v>
       </c>
     </row>
     <row r="128">
@@ -50590,16 +50590,16 @@
         <v>123</v>
       </c>
       <c r="H128" t="n">
-        <v>11.4440840618341</v>
+        <v>14.5294028074341</v>
       </c>
       <c r="I128" t="n">
-        <v>0.867813937996149</v>
+        <v>0.790291548434388</v>
       </c>
       <c r="J128" t="n">
-        <v>9.74319999807978</v>
+        <v>12.9804598352163</v>
       </c>
       <c r="K128" t="n">
-        <v>13.1449681255884</v>
+        <v>16.0783457796519</v>
       </c>
     </row>
     <row r="129">
@@ -50625,16 +50625,16 @@
         <v>123</v>
       </c>
       <c r="H129" t="n">
-        <v>7.86806403304152</v>
+        <v>11.1891666860038</v>
       </c>
       <c r="I129" t="n">
-        <v>0.915803707954633</v>
+        <v>0.816301652833971</v>
       </c>
       <c r="J129" t="n">
-        <v>6.0731217485422</v>
+        <v>9.58924484592869</v>
       </c>
       <c r="K129" t="n">
-        <v>9.66300631754084</v>
+        <v>12.7890885260789</v>
       </c>
     </row>
     <row r="130">
@@ -50660,16 +50660,16 @@
         <v>123</v>
       </c>
       <c r="H130" t="n">
-        <v>13.4240372682744</v>
+        <v>16.9812466096394</v>
       </c>
       <c r="I130" t="n">
-        <v>0.774624294177391</v>
+        <v>0.896479488616414</v>
       </c>
       <c r="J130" t="n">
-        <v>11.905801550137</v>
+        <v>15.2241790990723</v>
       </c>
       <c r="K130" t="n">
-        <v>14.9422729864119</v>
+        <v>18.7383141202064</v>
       </c>
     </row>
     <row r="131">
@@ -50695,16 +50695,16 @@
         <v>123</v>
       </c>
       <c r="H131" t="n">
-        <v>13.2648057787493</v>
+        <v>15.8309043979509</v>
       </c>
       <c r="I131" t="n">
-        <v>0.898991525302281</v>
+        <v>0.896953729923893</v>
       </c>
       <c r="J131" t="n">
-        <v>11.5028147667501</v>
+        <v>14.0729073915012</v>
       </c>
       <c r="K131" t="n">
-        <v>15.0267967907485</v>
+        <v>17.5889014044006</v>
       </c>
     </row>
     <row r="132">
@@ -50730,16 +50730,16 @@
         <v>123</v>
       </c>
       <c r="H132" t="n">
-        <v>14.3645587003443</v>
+        <v>17.3597663096853</v>
       </c>
       <c r="I132" t="n">
-        <v>0.655902338787312</v>
+        <v>0.721318982398429</v>
       </c>
       <c r="J132" t="n">
-        <v>13.0790137389456</v>
+        <v>15.9460070828193</v>
       </c>
       <c r="K132" t="n">
-        <v>15.650103661743</v>
+        <v>18.7735255365513</v>
       </c>
     </row>
     <row r="133">
@@ -50765,16 +50765,16 @@
         <v>123</v>
       </c>
       <c r="H133" t="n">
-        <v>12.1170502211997</v>
+        <v>16.2587827262063</v>
       </c>
       <c r="I133" t="n">
-        <v>1.32221463349369</v>
+        <v>1.45002408360645</v>
       </c>
       <c r="J133" t="n">
-        <v>9.5255571597202</v>
+        <v>13.4167877456219</v>
       </c>
       <c r="K133" t="n">
-        <v>14.7085432826791</v>
+        <v>19.1007777067906</v>
       </c>
     </row>
   </sheetData>
@@ -50849,16 +50849,16 @@
         <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>12.0937461397286</v>
+        <v>11.8199496148207</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42349962441895</v>
+        <v>1.89985989749497</v>
       </c>
       <c r="J2" t="n">
-        <v>9.30373814386117</v>
+        <v>8.09629264005859</v>
       </c>
       <c r="K2" t="n">
-        <v>14.883754135596</v>
+        <v>15.5436065895828</v>
       </c>
     </row>
     <row r="3">
@@ -50884,16 +50884,16 @@
         <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>10.4550367025486</v>
+        <v>10.7241670657428</v>
       </c>
       <c r="I3" t="n">
-        <v>1.42576219546968</v>
+        <v>1.3121165885111</v>
       </c>
       <c r="J3" t="n">
-        <v>7.66059414890924</v>
+        <v>8.15246580874348</v>
       </c>
       <c r="K3" t="n">
-        <v>13.2494792561879</v>
+        <v>13.2958683227421</v>
       </c>
     </row>
     <row r="4">
@@ -50919,16 +50919,16 @@
         <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>9.14146469702044</v>
+        <v>11.8709760036753</v>
       </c>
       <c r="I4" t="n">
-        <v>1.06153889737731</v>
+        <v>1.19220994177954</v>
       </c>
       <c r="J4" t="n">
-        <v>7.06088668997254</v>
+        <v>9.53428745577683</v>
       </c>
       <c r="K4" t="n">
-        <v>11.2220427040683</v>
+        <v>14.2076645515738</v>
       </c>
     </row>
     <row r="5">
@@ -50954,16 +50954,16 @@
         <v>112</v>
       </c>
       <c r="H5" t="n">
-        <v>9.97384017122349</v>
+        <v>9.34340496910354</v>
       </c>
       <c r="I5" t="n">
-        <v>1.35392133767128</v>
+        <v>1.38018366760114</v>
       </c>
       <c r="J5" t="n">
-        <v>7.32020311148749</v>
+        <v>6.63829468855491</v>
       </c>
       <c r="K5" t="n">
-        <v>12.6274772309595</v>
+        <v>12.0485152496522</v>
       </c>
     </row>
     <row r="6">
@@ -50989,16 +50989,16 @@
         <v>112</v>
       </c>
       <c r="H6" t="n">
-        <v>11.0192447382649</v>
+        <v>10.3906872067444</v>
       </c>
       <c r="I6" t="n">
-        <v>1.05395828929197</v>
+        <v>1.15254636719287</v>
       </c>
       <c r="J6" t="n">
-        <v>8.95352445004519</v>
+        <v>8.13173783653386</v>
       </c>
       <c r="K6" t="n">
-        <v>13.0849650264846</v>
+        <v>12.6496365769549</v>
       </c>
     </row>
     <row r="7">
@@ -51024,16 +51024,16 @@
         <v>112</v>
       </c>
       <c r="H7" t="n">
-        <v>9.43247541801367</v>
+        <v>10.1563975171831</v>
       </c>
       <c r="I7" t="n">
-        <v>1.17461709741177</v>
+        <v>1.10867227858456</v>
       </c>
       <c r="J7" t="n">
-        <v>7.13026821146163</v>
+        <v>7.9834397804994</v>
       </c>
       <c r="K7" t="n">
-        <v>11.7346826245657</v>
+        <v>12.3293552538668</v>
       </c>
     </row>
     <row r="8">
@@ -51059,16 +51059,16 @@
         <v>112</v>
       </c>
       <c r="H8" t="n">
-        <v>8.64146978402387</v>
+        <v>8.68808777355993</v>
       </c>
       <c r="I8" t="n">
-        <v>0.997887434022776</v>
+        <v>0.873846152094287</v>
       </c>
       <c r="J8" t="n">
-        <v>6.68564635271413</v>
+        <v>6.97538078742622</v>
       </c>
       <c r="K8" t="n">
-        <v>10.5972932153336</v>
+        <v>10.4007947596936</v>
       </c>
     </row>
     <row r="9">
@@ -51094,16 +51094,16 @@
         <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>10.7605945716322</v>
+        <v>10.4516141170804</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9613634499719</v>
+        <v>1.01265258337246</v>
       </c>
       <c r="J9" t="n">
-        <v>8.87635683363406</v>
+        <v>8.46685152481895</v>
       </c>
       <c r="K9" t="n">
-        <v>12.6448323096303</v>
+        <v>12.4363767093419</v>
       </c>
     </row>
     <row r="10">
@@ -51129,16 +51129,16 @@
         <v>112</v>
       </c>
       <c r="H10" t="n">
-        <v>5.54957171583634</v>
+        <v>5.59504977743596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.918645321528974</v>
+        <v>0.787255578723572</v>
       </c>
       <c r="J10" t="n">
-        <v>3.74905997107334</v>
+        <v>4.05205719650953</v>
       </c>
       <c r="K10" t="n">
-        <v>7.35008346059935</v>
+        <v>7.1380423583624</v>
       </c>
     </row>
     <row r="11">
@@ -51164,16 +51164,16 @@
         <v>112</v>
       </c>
       <c r="H11" t="n">
-        <v>10.5432315556525</v>
+        <v>9.9277723468565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.961047991661763</v>
+        <v>0.973890050790407</v>
       </c>
       <c r="J11" t="n">
-        <v>8.65961210458093</v>
+        <v>8.01898292240542</v>
       </c>
       <c r="K11" t="n">
-        <v>12.4268510067241</v>
+        <v>11.8365617713076</v>
       </c>
     </row>
     <row r="12">
@@ -51199,16 +51199,16 @@
         <v>112</v>
       </c>
       <c r="H12" t="n">
-        <v>8.89282413519986</v>
+        <v>9.6014130687258</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7654412126313</v>
+        <v>0.887616537526478</v>
       </c>
       <c r="J12" t="n">
-        <v>7.39258692615984</v>
+        <v>7.86171662309176</v>
       </c>
       <c r="K12" t="n">
-        <v>10.3930613442399</v>
+        <v>11.3411095143598</v>
       </c>
     </row>
     <row r="13">
@@ -51234,16 +51234,16 @@
         <v>112</v>
       </c>
       <c r="H13" t="n">
-        <v>10.6147751572843</v>
+        <v>10.6891525935526</v>
       </c>
       <c r="I13" t="n">
-        <v>0.851610671398992</v>
+        <v>0.926170547158809</v>
       </c>
       <c r="J13" t="n">
-        <v>8.94564891249233</v>
+        <v>8.87389167757957</v>
       </c>
       <c r="K13" t="n">
-        <v>12.2839014020763</v>
+        <v>12.5044135095256</v>
       </c>
     </row>
     <row r="14">
@@ -51269,16 +51269,16 @@
         <v>112</v>
       </c>
       <c r="H14" t="n">
-        <v>10.7753943984511</v>
+        <v>10.5872228679863</v>
       </c>
       <c r="I14" t="n">
-        <v>1.17691481466006</v>
+        <v>1.0275056496732</v>
       </c>
       <c r="J14" t="n">
-        <v>8.46868374884579</v>
+        <v>8.57334880071539</v>
       </c>
       <c r="K14" t="n">
-        <v>13.0821050480565</v>
+        <v>12.6010969352572</v>
       </c>
     </row>
     <row r="15">
@@ -51304,16 +51304,16 @@
         <v>112</v>
       </c>
       <c r="H15" t="n">
-        <v>11.6844924983082</v>
+        <v>12.6247474595695</v>
       </c>
       <c r="I15" t="n">
-        <v>1.15311944119088</v>
+        <v>1.47446416985013</v>
       </c>
       <c r="J15" t="n">
-        <v>9.42441992370114</v>
+        <v>9.73485079016853</v>
       </c>
       <c r="K15" t="n">
-        <v>13.9445650729153</v>
+        <v>15.5146441289705</v>
       </c>
     </row>
     <row r="16">
@@ -51339,16 +51339,16 @@
         <v>112</v>
       </c>
       <c r="H16" t="n">
-        <v>9.27683665982748</v>
+        <v>9.40002191895025</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0445387690887</v>
+        <v>0.914848922616658</v>
       </c>
       <c r="J16" t="n">
-        <v>7.22957829195783</v>
+        <v>7.60695097932633</v>
       </c>
       <c r="K16" t="n">
-        <v>11.3240950276971</v>
+        <v>11.1930928585742</v>
       </c>
     </row>
     <row r="17">
@@ -51374,16 +51374,16 @@
         <v>112</v>
       </c>
       <c r="H17" t="n">
-        <v>9.57912085263343</v>
+        <v>9.49494247261277</v>
       </c>
       <c r="I17" t="n">
-        <v>1.35635395315633</v>
+        <v>1.04419054888143</v>
       </c>
       <c r="J17" t="n">
-        <v>6.92071595415849</v>
+        <v>7.44836660380805</v>
       </c>
       <c r="K17" t="n">
-        <v>12.2375257511084</v>
+        <v>11.5415183414175</v>
       </c>
     </row>
     <row r="18">
@@ -51409,16 +51409,16 @@
         <v>112</v>
       </c>
       <c r="H18" t="n">
-        <v>9.02603094855878</v>
+        <v>7.87733716299122</v>
       </c>
       <c r="I18" t="n">
-        <v>0.86889983844714</v>
+        <v>0.866798923507954</v>
       </c>
       <c r="J18" t="n">
-        <v>7.32301855902971</v>
+        <v>6.17844249107754</v>
       </c>
       <c r="K18" t="n">
-        <v>10.7290433380878</v>
+        <v>9.5762318349049</v>
       </c>
     </row>
     <row r="19">
@@ -51444,16 +51444,16 @@
         <v>112</v>
       </c>
       <c r="H19" t="n">
-        <v>9.12043771339047</v>
+        <v>9.8836477376019</v>
       </c>
       <c r="I19" t="n">
-        <v>1.06190969151545</v>
+        <v>0.95968664587068</v>
       </c>
       <c r="J19" t="n">
-        <v>7.03913296318615</v>
+        <v>8.00269647525132</v>
       </c>
       <c r="K19" t="n">
-        <v>11.2017424635948</v>
+        <v>11.7645989999525</v>
       </c>
     </row>
     <row r="20">
@@ -51479,16 +51479,16 @@
         <v>112</v>
       </c>
       <c r="H20" t="n">
-        <v>8.34398314709448</v>
+        <v>7.41441884592585</v>
       </c>
       <c r="I20" t="n">
-        <v>0.76022169977623</v>
+        <v>0.707802650469455</v>
       </c>
       <c r="J20" t="n">
-        <v>6.85397599526725</v>
+        <v>6.02715114284373</v>
       </c>
       <c r="K20" t="n">
-        <v>9.83399029892171</v>
+        <v>8.80168654900798</v>
       </c>
     </row>
     <row r="21">
@@ -51514,16 +51514,16 @@
         <v>112</v>
       </c>
       <c r="H21" t="n">
-        <v>8.83638550468955</v>
+        <v>8.06437954837932</v>
       </c>
       <c r="I21" t="n">
-        <v>0.871784227470951</v>
+        <v>0.888379488004211</v>
       </c>
       <c r="J21" t="n">
-        <v>7.12771981655641</v>
+        <v>6.32318774728693</v>
       </c>
       <c r="K21" t="n">
-        <v>10.5450511928227</v>
+        <v>9.8055713494717</v>
       </c>
     </row>
     <row r="22">
@@ -51549,16 +51549,16 @@
         <v>112</v>
       </c>
       <c r="H22" t="n">
-        <v>9.53952743007687</v>
+        <v>9.62964201899762</v>
       </c>
       <c r="I22" t="n">
-        <v>1.49145822889608</v>
+        <v>1.25221644709252</v>
       </c>
       <c r="J22" t="n">
-        <v>6.61632301699466</v>
+        <v>7.17534288184757</v>
       </c>
       <c r="K22" t="n">
-        <v>12.4627318431591</v>
+        <v>12.0839411561477</v>
       </c>
     </row>
     <row r="23">
@@ -51584,16 +51584,16 @@
         <v>112</v>
       </c>
       <c r="H23" t="n">
-        <v>8.76404671358226</v>
+        <v>8.88571002003479</v>
       </c>
       <c r="I23" t="n">
-        <v>0.852861756706357</v>
+        <v>0.882500463233402</v>
       </c>
       <c r="J23" t="n">
-        <v>7.09246838664623</v>
+        <v>7.15604089575741</v>
       </c>
       <c r="K23" t="n">
-        <v>10.4356250405183</v>
+        <v>10.6153791443122</v>
       </c>
     </row>
     <row r="24">
@@ -51619,16 +51619,16 @@
         <v>112</v>
       </c>
       <c r="H24" t="n">
-        <v>7.1301554050624</v>
+        <v>7.81251920486145</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9715455682413</v>
+        <v>1.0992857362085</v>
       </c>
       <c r="J24" t="n">
-        <v>5.22596108196996</v>
+        <v>5.65795875317418</v>
       </c>
       <c r="K24" t="n">
-        <v>9.03434972815485</v>
+        <v>9.96707965654871</v>
       </c>
     </row>
     <row r="25">
@@ -51654,16 +51654,16 @@
         <v>112</v>
       </c>
       <c r="H25" t="n">
-        <v>11.2481937929634</v>
+        <v>10.5977169342414</v>
       </c>
       <c r="I25" t="n">
-        <v>1.13402486088372</v>
+        <v>1.12427310598605</v>
       </c>
       <c r="J25" t="n">
-        <v>9.02554590805826</v>
+        <v>8.39418213772173</v>
       </c>
       <c r="K25" t="n">
-        <v>13.4708416778685</v>
+        <v>12.801251730761</v>
       </c>
     </row>
     <row r="26">
@@ -51689,16 +51689,16 @@
         <v>112</v>
       </c>
       <c r="H26" t="n">
-        <v>6.53355726235013</v>
+        <v>6.68562487940453</v>
       </c>
       <c r="I26" t="n">
-        <v>0.692130349731888</v>
+        <v>0.895868052047217</v>
       </c>
       <c r="J26" t="n">
-        <v>5.17700670426852</v>
+        <v>4.92975576249193</v>
       </c>
       <c r="K26" t="n">
-        <v>7.89010782043174</v>
+        <v>8.44149399631713</v>
       </c>
     </row>
     <row r="27">
@@ -51724,16 +51724,16 @@
         <v>112</v>
       </c>
       <c r="H27" t="n">
-        <v>8.97985988627435</v>
+        <v>9.25553516955002</v>
       </c>
       <c r="I27" t="n">
-        <v>0.791780825575519</v>
+        <v>0.855653564224315</v>
       </c>
       <c r="J27" t="n">
-        <v>7.42799798449694</v>
+        <v>7.57848500042703</v>
       </c>
       <c r="K27" t="n">
-        <v>10.5317217880518</v>
+        <v>10.932585338673</v>
       </c>
     </row>
     <row r="28">
@@ -51759,16 +51759,16 @@
         <v>112</v>
       </c>
       <c r="H28" t="n">
-        <v>10.3746403955057</v>
+        <v>10.2800053820688</v>
       </c>
       <c r="I28" t="n">
-        <v>0.924808697634947</v>
+        <v>0.969075060448163</v>
       </c>
       <c r="J28" t="n">
-        <v>8.56204865555184</v>
+        <v>8.38065316527446</v>
       </c>
       <c r="K28" t="n">
-        <v>12.1872321354596</v>
+        <v>12.1793575988632</v>
       </c>
     </row>
     <row r="29">
@@ -51794,16 +51794,16 @@
         <v>120</v>
       </c>
       <c r="H29" t="n">
-        <v>26.5399409008509</v>
+        <v>31.1022982210379</v>
       </c>
       <c r="I29" t="n">
-        <v>2.13814480795239</v>
+        <v>2.00865791225517</v>
       </c>
       <c r="J29" t="n">
-        <v>22.3492540835329</v>
+        <v>27.1654010557563</v>
       </c>
       <c r="K29" t="n">
-        <v>30.7306277181689</v>
+        <v>35.0391953863194</v>
       </c>
     </row>
     <row r="30">
@@ -51829,16 +51829,16 @@
         <v>120</v>
       </c>
       <c r="H30" t="n">
-        <v>27.8640711692771</v>
+        <v>31.4502255249128</v>
       </c>
       <c r="I30" t="n">
-        <v>1.58087956507993</v>
+        <v>1.64265529119627</v>
       </c>
       <c r="J30" t="n">
-        <v>24.7656041578251</v>
+        <v>28.2306803151539</v>
       </c>
       <c r="K30" t="n">
-        <v>30.9625381807291</v>
+        <v>34.6697707346716</v>
       </c>
     </row>
     <row r="31">
@@ -51864,16 +51864,16 @@
         <v>120</v>
       </c>
       <c r="H31" t="n">
-        <v>27.7241812724955</v>
+        <v>31.0350668206669</v>
       </c>
       <c r="I31" t="n">
-        <v>1.9456834325414</v>
+        <v>2.14088451332487</v>
       </c>
       <c r="J31" t="n">
-        <v>23.9107118193981</v>
+        <v>26.8390102794906</v>
       </c>
       <c r="K31" t="n">
-        <v>31.5376507255929</v>
+        <v>35.2311233618432</v>
       </c>
     </row>
     <row r="32">
@@ -51899,16 +51899,16 @@
         <v>120</v>
       </c>
       <c r="H32" t="n">
-        <v>25.2469159791699</v>
+        <v>28.7886592569682</v>
       </c>
       <c r="I32" t="n">
-        <v>1.63693580594681</v>
+        <v>1.86736679227882</v>
       </c>
       <c r="J32" t="n">
-        <v>22.0385807545101</v>
+        <v>25.1286875981756</v>
       </c>
       <c r="K32" t="n">
-        <v>28.4552512038297</v>
+        <v>32.4486309157608</v>
       </c>
     </row>
     <row r="33">
@@ -51934,16 +51934,16 @@
         <v>120</v>
       </c>
       <c r="H33" t="n">
-        <v>30.0021436613895</v>
+        <v>32.9159515574107</v>
       </c>
       <c r="I33" t="n">
-        <v>1.998034999311</v>
+        <v>1.88576490155602</v>
       </c>
       <c r="J33" t="n">
-        <v>26.0860670228894</v>
+        <v>29.2199202670512</v>
       </c>
       <c r="K33" t="n">
-        <v>33.9182202998895</v>
+        <v>36.6119828477702</v>
       </c>
     </row>
     <row r="34">
@@ -51969,16 +51969,16 @@
         <v>120</v>
       </c>
       <c r="H34" t="n">
-        <v>27.5040884204534</v>
+        <v>29.8058861085354</v>
       </c>
       <c r="I34" t="n">
-        <v>1.75694823352244</v>
+        <v>1.62092593006197</v>
       </c>
       <c r="J34" t="n">
-        <v>24.0605331600482</v>
+        <v>26.6289296640069</v>
       </c>
       <c r="K34" t="n">
-        <v>30.9476436808587</v>
+        <v>32.982842553064</v>
       </c>
     </row>
     <row r="35">
@@ -52004,16 +52004,16 @@
         <v>120</v>
       </c>
       <c r="H35" t="n">
-        <v>26.1972602116431</v>
+        <v>30.486811065257</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2509504092161</v>
+        <v>2.33458998846472</v>
       </c>
       <c r="J35" t="n">
-        <v>21.7854784785938</v>
+        <v>25.9110987691984</v>
       </c>
       <c r="K35" t="n">
-        <v>30.6090419446923</v>
+        <v>35.0625233613156</v>
       </c>
     </row>
     <row r="36">
@@ -52039,16 +52039,16 @@
         <v>120</v>
       </c>
       <c r="H36" t="n">
-        <v>27.4793914181619</v>
+        <v>29.1922192688953</v>
       </c>
       <c r="I36" t="n">
-        <v>1.06436588137425</v>
+        <v>1.34304124210278</v>
       </c>
       <c r="J36" t="n">
-        <v>25.3932726242951</v>
+        <v>26.5599068046219</v>
       </c>
       <c r="K36" t="n">
-        <v>29.5655102120286</v>
+        <v>31.8245317331687</v>
       </c>
     </row>
     <row r="37">
@@ -52074,16 +52074,16 @@
         <v>120</v>
       </c>
       <c r="H37" t="n">
-        <v>21.1513002725352</v>
+        <v>22.6542346702905</v>
       </c>
       <c r="I37" t="n">
-        <v>1.70528290772465</v>
+        <v>1.40578549180791</v>
       </c>
       <c r="J37" t="n">
-        <v>17.8090071899432</v>
+        <v>19.8989457363581</v>
       </c>
       <c r="K37" t="n">
-        <v>24.4935933551273</v>
+        <v>25.409523604223</v>
       </c>
     </row>
     <row r="38">
@@ -52109,16 +52109,16 @@
         <v>120</v>
       </c>
       <c r="H38" t="n">
-        <v>23.9770988300726</v>
+        <v>28.4172515648078</v>
       </c>
       <c r="I38" t="n">
-        <v>2.06342644320729</v>
+        <v>2.40205378337409</v>
       </c>
       <c r="J38" t="n">
-        <v>19.9328573166387</v>
+        <v>23.7093126604664</v>
       </c>
       <c r="K38" t="n">
-        <v>28.0213403435065</v>
+        <v>33.1251904691492</v>
       </c>
     </row>
     <row r="39">
@@ -52144,16 +52144,16 @@
         <v>120</v>
       </c>
       <c r="H39" t="n">
-        <v>25.7516791534261</v>
+        <v>26.7547693144513</v>
       </c>
       <c r="I39" t="n">
-        <v>1.48305066406343</v>
+        <v>1.607210334168</v>
       </c>
       <c r="J39" t="n">
-        <v>22.8449532646136</v>
+        <v>23.6046949439015</v>
       </c>
       <c r="K39" t="n">
-        <v>28.6584050422387</v>
+        <v>29.9048436850012</v>
       </c>
     </row>
     <row r="40">
@@ -52179,16 +52179,16 @@
         <v>120</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2353691332791</v>
+        <v>27.2645705192158</v>
       </c>
       <c r="I40" t="n">
-        <v>1.13520001465913</v>
+        <v>1.40079738060771</v>
       </c>
       <c r="J40" t="n">
-        <v>22.0104179892979</v>
+        <v>24.5190581035867</v>
       </c>
       <c r="K40" t="n">
-        <v>26.4603202772603</v>
+        <v>30.010082934845</v>
       </c>
     </row>
     <row r="41">
@@ -52214,16 +52214,16 @@
         <v>120</v>
       </c>
       <c r="H41" t="n">
-        <v>24.5289715771481</v>
+        <v>27.2661728816026</v>
       </c>
       <c r="I41" t="n">
-        <v>1.45698338561593</v>
+        <v>1.32757007562018</v>
       </c>
       <c r="J41" t="n">
-        <v>21.6733366152677</v>
+        <v>24.664183346434</v>
       </c>
       <c r="K41" t="n">
-        <v>27.3846065390286</v>
+        <v>29.8681624167713</v>
       </c>
     </row>
     <row r="42">
@@ -52249,16 +52249,16 @@
         <v>120</v>
       </c>
       <c r="H42" t="n">
-        <v>25.3360441372716</v>
+        <v>27.571945106705</v>
       </c>
       <c r="I42" t="n">
-        <v>1.58268091562502</v>
+        <v>1.58282980812944</v>
       </c>
       <c r="J42" t="n">
-        <v>22.2340465436277</v>
+        <v>24.4696556891149</v>
       </c>
       <c r="K42" t="n">
-        <v>28.4380417309155</v>
+        <v>30.6742345242952</v>
       </c>
     </row>
     <row r="43">
@@ -52284,16 +52284,16 @@
         <v>120</v>
       </c>
       <c r="H43" t="n">
-        <v>24.744578658574</v>
+        <v>30.6985487847395</v>
       </c>
       <c r="I43" t="n">
-        <v>1.37092306965104</v>
+        <v>1.851456686855</v>
       </c>
       <c r="J43" t="n">
-        <v>22.0576188164829</v>
+        <v>27.0697603595678</v>
       </c>
       <c r="K43" t="n">
-        <v>27.4315385006652</v>
+        <v>34.3273372099111</v>
       </c>
     </row>
     <row r="44">
@@ -52319,16 +52319,16 @@
         <v>120</v>
       </c>
       <c r="H44" t="n">
-        <v>28.08972099326</v>
+        <v>29.3002026669622</v>
       </c>
       <c r="I44" t="n">
-        <v>1.89200853809182</v>
+        <v>1.93945189076289</v>
       </c>
       <c r="J44" t="n">
-        <v>24.3814524001578</v>
+        <v>25.4989468113189</v>
       </c>
       <c r="K44" t="n">
-        <v>31.7979895863623</v>
+        <v>33.1014585226056</v>
       </c>
     </row>
     <row r="45">
@@ -52354,16 +52354,16 @@
         <v>120</v>
       </c>
       <c r="H45" t="n">
-        <v>26.4674933280455</v>
+        <v>31.4656491251004</v>
       </c>
       <c r="I45" t="n">
-        <v>1.62287742805234</v>
+        <v>1.97787675674485</v>
       </c>
       <c r="J45" t="n">
-        <v>23.28671201774</v>
+        <v>27.5890819160216</v>
       </c>
       <c r="K45" t="n">
-        <v>29.6482746383511</v>
+        <v>35.3422163341792</v>
       </c>
     </row>
     <row r="46">
@@ -52389,16 +52389,16 @@
         <v>120</v>
       </c>
       <c r="H46" t="n">
-        <v>26.4625330955381</v>
+        <v>30.7602198330007</v>
       </c>
       <c r="I46" t="n">
-        <v>1.71473702771458</v>
+        <v>1.78535131219239</v>
       </c>
       <c r="J46" t="n">
-        <v>23.1017102782603</v>
+        <v>27.2609955613523</v>
       </c>
       <c r="K46" t="n">
-        <v>29.8233559128159</v>
+        <v>34.2594441046491</v>
       </c>
     </row>
     <row r="47">
@@ -52424,16 +52424,16 @@
         <v>120</v>
       </c>
       <c r="H47" t="n">
-        <v>26.9719175062056</v>
+        <v>26.5777117271564</v>
       </c>
       <c r="I47" t="n">
-        <v>1.66311604167642</v>
+        <v>1.46034323654912</v>
       </c>
       <c r="J47" t="n">
-        <v>23.712269962409</v>
+        <v>23.7154915784535</v>
       </c>
       <c r="K47" t="n">
-        <v>30.2315650500022</v>
+        <v>29.4399318758594</v>
       </c>
     </row>
     <row r="48">
@@ -52459,16 +52459,16 @@
         <v>120</v>
       </c>
       <c r="H48" t="n">
-        <v>25.3959202214624</v>
+        <v>29.0640756423917</v>
       </c>
       <c r="I48" t="n">
-        <v>1.3624856434792</v>
+        <v>1.14253913827492</v>
       </c>
       <c r="J48" t="n">
-        <v>22.7254974307903</v>
+        <v>26.8247400804454</v>
       </c>
       <c r="K48" t="n">
-        <v>28.0663430121345</v>
+        <v>31.303411204338</v>
       </c>
     </row>
     <row r="49">
@@ -52494,16 +52494,16 @@
         <v>120</v>
       </c>
       <c r="H49" t="n">
-        <v>27.3949493778108</v>
+        <v>30.3134956581899</v>
       </c>
       <c r="I49" t="n">
-        <v>2.65062265173961</v>
+        <v>2.08043612185831</v>
       </c>
       <c r="J49" t="n">
-        <v>22.1998244437951</v>
+        <v>26.2359157872114</v>
       </c>
       <c r="K49" t="n">
-        <v>32.5900743118264</v>
+        <v>34.3910755291684</v>
       </c>
     </row>
     <row r="50">
@@ -52529,16 +52529,16 @@
         <v>120</v>
       </c>
       <c r="H50" t="n">
-        <v>20.5570595704439</v>
+        <v>24.0317589500004</v>
       </c>
       <c r="I50" t="n">
-        <v>1.7383223436166</v>
+        <v>1.98291858420032</v>
       </c>
       <c r="J50" t="n">
-        <v>17.1500103834341</v>
+        <v>20.1453099406926</v>
       </c>
       <c r="K50" t="n">
-        <v>23.9641087574537</v>
+        <v>27.9182079593082</v>
       </c>
     </row>
     <row r="51">
@@ -52564,16 +52564,16 @@
         <v>120</v>
       </c>
       <c r="H51" t="n">
-        <v>24.3218043080898</v>
+        <v>27.6559407113116</v>
       </c>
       <c r="I51" t="n">
-        <v>1.8398539110974</v>
+        <v>2.1269189060296</v>
       </c>
       <c r="J51" t="n">
-        <v>20.7157569055238</v>
+        <v>23.4872562574562</v>
       </c>
       <c r="K51" t="n">
-        <v>27.9278517106559</v>
+        <v>31.8246251651669</v>
       </c>
     </row>
     <row r="52">
@@ -52599,16 +52599,16 @@
         <v>120</v>
       </c>
       <c r="H52" t="n">
-        <v>32.1823591114925</v>
+        <v>36.0777296733201</v>
       </c>
       <c r="I52" t="n">
-        <v>2.01240700208767</v>
+        <v>2.28041602926598</v>
       </c>
       <c r="J52" t="n">
-        <v>28.2381138651645</v>
+        <v>31.608196386191</v>
       </c>
       <c r="K52" t="n">
-        <v>36.1266043578206</v>
+        <v>40.5472629604493</v>
       </c>
     </row>
     <row r="53">
@@ -52634,16 +52634,16 @@
         <v>120</v>
       </c>
       <c r="H53" t="n">
-        <v>28.641873086805</v>
+        <v>28.196681708015</v>
       </c>
       <c r="I53" t="n">
-        <v>2.05839556314046</v>
+        <v>1.56521910578187</v>
       </c>
       <c r="J53" t="n">
-        <v>24.6074919171127</v>
+        <v>25.1289086327685</v>
       </c>
       <c r="K53" t="n">
-        <v>32.6762542564974</v>
+        <v>31.2644547832615</v>
       </c>
     </row>
     <row r="54">
@@ -52669,16 +52669,16 @@
         <v>120</v>
       </c>
       <c r="H54" t="n">
-        <v>24.7892841667705</v>
+        <v>27.3189299604889</v>
       </c>
       <c r="I54" t="n">
-        <v>1.14694056984983</v>
+        <v>1.20070210845244</v>
       </c>
       <c r="J54" t="n">
-        <v>22.541321957457</v>
+        <v>24.9655970717608</v>
       </c>
       <c r="K54" t="n">
-        <v>27.037246376084</v>
+        <v>29.6722628492169</v>
       </c>
     </row>
     <row r="55">
@@ -52704,16 +52704,16 @@
         <v>120</v>
       </c>
       <c r="H55" t="n">
-        <v>24.776401341478</v>
+        <v>28.426732665238</v>
       </c>
       <c r="I55" t="n">
-        <v>1.33845941853246</v>
+        <v>1.67324720044866</v>
       </c>
       <c r="J55" t="n">
-        <v>22.153069086386</v>
+        <v>25.1472284151261</v>
       </c>
       <c r="K55" t="n">
-        <v>27.3997335965701</v>
+        <v>31.7062369153498</v>
       </c>
     </row>
     <row r="56">
@@ -52739,16 +52739,16 @@
         <v>122</v>
       </c>
       <c r="H56" t="n">
-        <v>20.4516075679888</v>
+        <v>22.6117156742409</v>
       </c>
       <c r="I56" t="n">
-        <v>1.58205133825255</v>
+        <v>1.6725943895345</v>
       </c>
       <c r="J56" t="n">
-        <v>17.3508439233204</v>
+        <v>19.3334909100096</v>
       </c>
       <c r="K56" t="n">
-        <v>23.5523712126572</v>
+        <v>25.8899404384723</v>
       </c>
     </row>
     <row r="57">
@@ -52774,16 +52774,16 @@
         <v>122</v>
       </c>
       <c r="H57" t="n">
-        <v>19.7491755338209</v>
+        <v>21.8929046750671</v>
       </c>
       <c r="I57" t="n">
-        <v>1.32692003765992</v>
+        <v>1.41429887779901</v>
       </c>
       <c r="J57" t="n">
-        <v>17.148460049643</v>
+        <v>19.1209298112056</v>
       </c>
       <c r="K57" t="n">
-        <v>22.3498910179989</v>
+        <v>24.6648795389286</v>
       </c>
     </row>
     <row r="58">
@@ -52809,16 +52809,16 @@
         <v>122</v>
       </c>
       <c r="H58" t="n">
-        <v>18.6874536139707</v>
+        <v>21.7884161343743</v>
       </c>
       <c r="I58" t="n">
-        <v>1.43157703814902</v>
+        <v>1.70463616427897</v>
       </c>
       <c r="J58" t="n">
-        <v>15.8816141781041</v>
+        <v>18.4473906456431</v>
       </c>
       <c r="K58" t="n">
-        <v>21.4932930498373</v>
+        <v>25.1294416231056</v>
       </c>
     </row>
     <row r="59">
@@ -52844,16 +52844,16 @@
         <v>122</v>
       </c>
       <c r="H59" t="n">
-        <v>17.6192997501332</v>
+        <v>19.0487221165926</v>
       </c>
       <c r="I59" t="n">
-        <v>1.05024574359806</v>
+        <v>1.23385333137504</v>
       </c>
       <c r="J59" t="n">
-        <v>15.5608559177645</v>
+        <v>16.6304140248928</v>
       </c>
       <c r="K59" t="n">
-        <v>19.6777435825019</v>
+        <v>21.4670302082925</v>
       </c>
     </row>
     <row r="60">
@@ -52879,16 +52879,16 @@
         <v>122</v>
       </c>
       <c r="H60" t="n">
-        <v>20.8093949835481</v>
+        <v>21.5713478007704</v>
       </c>
       <c r="I60" t="n">
-        <v>1.78514510003202</v>
+        <v>1.67009665817958</v>
       </c>
       <c r="J60" t="n">
-        <v>17.3105748803072</v>
+        <v>18.2980185000377</v>
       </c>
       <c r="K60" t="n">
-        <v>24.308215086789</v>
+        <v>24.8446771015031</v>
       </c>
     </row>
     <row r="61">
@@ -52914,16 +52914,16 @@
         <v>122</v>
       </c>
       <c r="H61" t="n">
-        <v>19.0640013389898</v>
+        <v>20.2771564032883</v>
       </c>
       <c r="I61" t="n">
-        <v>1.01700677392477</v>
+        <v>1.14486748649646</v>
       </c>
       <c r="J61" t="n">
-        <v>17.070704690064</v>
+        <v>18.0332573626844</v>
       </c>
       <c r="K61" t="n">
-        <v>21.0572979879156</v>
+        <v>22.5210554438923</v>
       </c>
     </row>
     <row r="62">
@@ -52949,16 +52949,16 @@
         <v>122</v>
       </c>
       <c r="H62" t="n">
-        <v>17.8970603470046</v>
+        <v>20.0208182904586</v>
       </c>
       <c r="I62" t="n">
-        <v>1.65410068004751</v>
+        <v>1.86950507829039</v>
       </c>
       <c r="J62" t="n">
-        <v>14.6550825873083</v>
+        <v>16.3566556680947</v>
       </c>
       <c r="K62" t="n">
-        <v>21.1390381067009</v>
+        <v>23.6849809128225</v>
       </c>
     </row>
     <row r="63">
@@ -52984,16 +52984,16 @@
         <v>122</v>
       </c>
       <c r="H63" t="n">
-        <v>20.1853699237924</v>
+        <v>20.6463848216321</v>
       </c>
       <c r="I63" t="n">
-        <v>0.731770486873713</v>
+        <v>1.06162679542787</v>
       </c>
       <c r="J63" t="n">
-        <v>18.7511261245705</v>
+        <v>18.5656345375708</v>
       </c>
       <c r="K63" t="n">
-        <v>21.6196137230142</v>
+        <v>22.7271351056933</v>
       </c>
     </row>
     <row r="64">
@@ -53019,16 +53019,16 @@
         <v>122</v>
       </c>
       <c r="H64" t="n">
-        <v>13.3291920635548</v>
+        <v>13.5947274670225</v>
       </c>
       <c r="I64" t="n">
-        <v>1.29311609914204</v>
+        <v>1.079684642028</v>
       </c>
       <c r="J64" t="n">
-        <v>10.7947310814075</v>
+        <v>11.4785844539866</v>
       </c>
       <c r="K64" t="n">
-        <v>15.8636530457021</v>
+        <v>15.7108704800584</v>
       </c>
     </row>
     <row r="65">
@@ -53054,16 +53054,16 @@
         <v>122</v>
       </c>
       <c r="H65" t="n">
-        <v>19.2676887692569</v>
+        <v>21.1654317772539</v>
       </c>
       <c r="I65" t="n">
-        <v>1.5492612402079</v>
+        <v>1.69012835855655</v>
       </c>
       <c r="J65" t="n">
-        <v>16.2311925358056</v>
+        <v>17.8528410652332</v>
       </c>
       <c r="K65" t="n">
-        <v>22.3041850027082</v>
+        <v>24.4780224892745</v>
       </c>
     </row>
     <row r="66">
@@ -53089,16 +53089,16 @@
         <v>122</v>
       </c>
       <c r="H66" t="n">
-        <v>19.3129981274436</v>
+        <v>18.0637997161116</v>
       </c>
       <c r="I66" t="n">
-        <v>1.21261143345956</v>
+        <v>1.34814770011142</v>
       </c>
       <c r="J66" t="n">
-        <v>16.9363233906214</v>
+        <v>15.4214787780527</v>
       </c>
       <c r="K66" t="n">
-        <v>21.6896728642658</v>
+        <v>20.7061206541705</v>
       </c>
     </row>
     <row r="67">
@@ -53124,16 +53124,16 @@
         <v>122</v>
       </c>
       <c r="H67" t="n">
-        <v>19.5262400134271</v>
+        <v>20.0536546203434</v>
       </c>
       <c r="I67" t="n">
-        <v>1.01131769934946</v>
+        <v>1.15615674346699</v>
       </c>
       <c r="J67" t="n">
-        <v>17.5440937457743</v>
+        <v>17.787629042665</v>
       </c>
       <c r="K67" t="n">
-        <v>21.50838628108</v>
+        <v>22.3196801980218</v>
       </c>
     </row>
     <row r="68">
@@ -53159,16 +53159,16 @@
         <v>122</v>
       </c>
       <c r="H68" t="n">
-        <v>19.5528020123636</v>
+        <v>20.2864175375229</v>
       </c>
       <c r="I68" t="n">
-        <v>1.41249478181315</v>
+        <v>1.22326271839723</v>
       </c>
       <c r="J68" t="n">
-        <v>16.7843631116591</v>
+        <v>17.8888666658337</v>
       </c>
       <c r="K68" t="n">
-        <v>22.3212409130681</v>
+        <v>22.683968409212</v>
       </c>
     </row>
     <row r="69">
@@ -53194,16 +53194,16 @@
         <v>122</v>
       </c>
       <c r="H69" t="n">
-        <v>19.6573291827688</v>
+        <v>20.9642074814206</v>
       </c>
       <c r="I69" t="n">
-        <v>0.979335242978796</v>
+        <v>1.35271141603489</v>
       </c>
       <c r="J69" t="n">
-        <v>17.7378673777396</v>
+        <v>18.3129418245161</v>
       </c>
       <c r="K69" t="n">
-        <v>21.576790987798</v>
+        <v>23.6154731383252</v>
       </c>
     </row>
     <row r="70">
@@ -53229,16 +53229,16 @@
         <v>122</v>
       </c>
       <c r="H70" t="n">
-        <v>19.5965842208576</v>
+        <v>21.5933195451655</v>
       </c>
       <c r="I70" t="n">
-        <v>1.0745098293343</v>
+        <v>1.22305712357912</v>
       </c>
       <c r="J70" t="n">
-        <v>17.4905836543281</v>
+        <v>19.1961716319153</v>
       </c>
       <c r="K70" t="n">
-        <v>21.7025847873871</v>
+        <v>23.9904674584157</v>
       </c>
     </row>
     <row r="71">
@@ -53264,16 +53264,16 @@
         <v>122</v>
       </c>
       <c r="H71" t="n">
-        <v>20.9574614310891</v>
+        <v>21.1251409173113</v>
       </c>
       <c r="I71" t="n">
-        <v>1.41166217234686</v>
+        <v>1.65549726298913</v>
       </c>
       <c r="J71" t="n">
-        <v>18.1906544149516</v>
+        <v>17.8804259053479</v>
       </c>
       <c r="K71" t="n">
-        <v>23.7242684472265</v>
+        <v>24.3698559292746</v>
       </c>
     </row>
     <row r="72">
@@ -53299,16 +53299,16 @@
         <v>122</v>
       </c>
       <c r="H72" t="n">
-        <v>19.3407175258186</v>
+        <v>21.1725761490726</v>
       </c>
       <c r="I72" t="n">
-        <v>1.32913619537783</v>
+        <v>1.585678684039</v>
       </c>
       <c r="J72" t="n">
-        <v>16.7356584523295</v>
+        <v>18.0647030373033</v>
       </c>
       <c r="K72" t="n">
-        <v>21.9457765993078</v>
+        <v>24.2804492608419</v>
       </c>
     </row>
     <row r="73">
@@ -53334,16 +53334,16 @@
         <v>122</v>
       </c>
       <c r="H73" t="n">
-        <v>20.0801245266569</v>
+        <v>22.6899475967529</v>
       </c>
       <c r="I73" t="n">
-        <v>1.61192431744995</v>
+        <v>1.58628672957937</v>
       </c>
       <c r="J73" t="n">
-        <v>16.9208109186507</v>
+        <v>19.5808827376235</v>
       </c>
       <c r="K73" t="n">
-        <v>23.2394381346631</v>
+        <v>25.7990124558823</v>
       </c>
     </row>
     <row r="74">
@@ -53369,16 +53369,16 @@
         <v>122</v>
       </c>
       <c r="H74" t="n">
-        <v>19.041535546852</v>
+        <v>17.0948641822529</v>
       </c>
       <c r="I74" t="n">
-        <v>1.30278940302692</v>
+        <v>1.13094111453601</v>
       </c>
       <c r="J74" t="n">
-        <v>16.4881152374789</v>
+        <v>14.8782603291268</v>
       </c>
       <c r="K74" t="n">
-        <v>21.5949558562252</v>
+        <v>19.3114680353791</v>
       </c>
     </row>
     <row r="75">
@@ -53404,16 +53404,16 @@
         <v>122</v>
       </c>
       <c r="H75" t="n">
-        <v>18.6983196965483</v>
+        <v>20.2036642671792</v>
       </c>
       <c r="I75" t="n">
-        <v>1.26569084040645</v>
+        <v>1.12709199183479</v>
       </c>
       <c r="J75" t="n">
-        <v>16.2176112337895</v>
+        <v>17.9946045559195</v>
       </c>
       <c r="K75" t="n">
-        <v>21.1790281593072</v>
+        <v>22.4127239784389</v>
       </c>
     </row>
     <row r="76">
@@ -53439,16 +53439,16 @@
         <v>122</v>
       </c>
       <c r="H76" t="n">
-        <v>19.8629478025995</v>
+        <v>20.8899083605947</v>
       </c>
       <c r="I76" t="n">
-        <v>2.03571915613735</v>
+        <v>1.64919005684882</v>
       </c>
       <c r="J76" t="n">
-        <v>15.873011573932</v>
+        <v>17.6575552455094</v>
       </c>
       <c r="K76" t="n">
-        <v>23.8528840312669</v>
+        <v>24.1222614756799</v>
       </c>
     </row>
     <row r="77">
@@ -53474,16 +53474,16 @@
         <v>122</v>
       </c>
       <c r="H77" t="n">
-        <v>16.0257820615497</v>
+        <v>17.7406484975666</v>
       </c>
       <c r="I77" t="n">
-        <v>1.23784771275579</v>
+        <v>1.5430211174768</v>
       </c>
       <c r="J77" t="n">
-        <v>13.5996451262031</v>
+        <v>14.7163826799274</v>
       </c>
       <c r="K77" t="n">
-        <v>18.4519189968964</v>
+        <v>20.7649143152059</v>
       </c>
     </row>
     <row r="78">
@@ -53509,16 +53509,16 @@
         <v>122</v>
       </c>
       <c r="H78" t="n">
-        <v>19.3558129615379</v>
+        <v>21.3416746350546</v>
       </c>
       <c r="I78" t="n">
-        <v>1.80394120049531</v>
+        <v>1.99121678930514</v>
       </c>
       <c r="J78" t="n">
-        <v>15.8201531783392</v>
+        <v>17.4389614426051</v>
       </c>
       <c r="K78" t="n">
-        <v>22.8914727447367</v>
+        <v>25.2443878275042</v>
       </c>
     </row>
     <row r="79">
@@ -53544,16 +53544,16 @@
         <v>122</v>
       </c>
       <c r="H79" t="n">
-        <v>23.7807387438626</v>
+        <v>25.0936587735003</v>
       </c>
       <c r="I79" t="n">
-        <v>1.30499474336701</v>
+        <v>1.66823902957929</v>
       </c>
       <c r="J79" t="n">
-        <v>21.2229960468492</v>
+        <v>21.8239703579208</v>
       </c>
       <c r="K79" t="n">
-        <v>26.338481440876</v>
+        <v>28.3633471890797</v>
       </c>
     </row>
     <row r="80">
@@ -53579,16 +53579,16 @@
         <v>122</v>
       </c>
       <c r="H80" t="n">
-        <v>18.7287305955751</v>
+        <v>17.4756044829929</v>
       </c>
       <c r="I80" t="n">
-        <v>1.61137876340075</v>
+        <v>1.37521397056281</v>
       </c>
       <c r="J80" t="n">
-        <v>15.5704862538569</v>
+        <v>14.7802346296535</v>
       </c>
       <c r="K80" t="n">
-        <v>21.8869749372932</v>
+        <v>20.1709743363324</v>
       </c>
     </row>
     <row r="81">
@@ -53614,16 +53614,16 @@
         <v>122</v>
       </c>
       <c r="H81" t="n">
-        <v>18.7745404147693</v>
+        <v>19.1337556799487</v>
       </c>
       <c r="I81" t="n">
-        <v>0.94124172573569</v>
+        <v>0.888351703863763</v>
       </c>
       <c r="J81" t="n">
-        <v>16.929740531581</v>
+        <v>17.392618334771</v>
       </c>
       <c r="K81" t="n">
-        <v>20.6193402979576</v>
+        <v>20.8748930251265</v>
       </c>
     </row>
     <row r="82">
@@ -53649,16 +53649,16 @@
         <v>122</v>
       </c>
       <c r="H82" t="n">
-        <v>19.6197151452196</v>
+        <v>20.7822393204747</v>
       </c>
       <c r="I82" t="n">
-        <v>1.13406059497987</v>
+        <v>1.59091823803657</v>
       </c>
       <c r="J82" t="n">
-        <v>17.396997222773</v>
+        <v>17.6640968715751</v>
       </c>
       <c r="K82" t="n">
-        <v>21.8424330676662</v>
+        <v>23.9003817693743</v>
       </c>
     </row>
     <row r="83">
@@ -53684,16 +53684,16 @@
         <v>123</v>
       </c>
       <c r="H83" t="n">
-        <v>14.4128181690427</v>
+        <v>17.710245757649</v>
       </c>
       <c r="I83" t="n">
-        <v>1.09282383789317</v>
+        <v>1.66178797134167</v>
       </c>
       <c r="J83" t="n">
-        <v>12.2709228053252</v>
+        <v>14.4532011838775</v>
       </c>
       <c r="K83" t="n">
-        <v>16.5547135327601</v>
+        <v>20.9672903314206</v>
       </c>
     </row>
     <row r="84">
@@ -53719,16 +53719,16 @@
         <v>123</v>
       </c>
       <c r="H84" t="n">
-        <v>14.9747354333088</v>
+        <v>16.7886942402515</v>
       </c>
       <c r="I84" t="n">
-        <v>1.15094005336952</v>
+        <v>1.33500501856816</v>
       </c>
       <c r="J84" t="n">
-        <v>12.7189343803399</v>
+        <v>14.1721324846777</v>
       </c>
       <c r="K84" t="n">
-        <v>17.2305364862776</v>
+        <v>19.4052559958254</v>
       </c>
     </row>
     <row r="85">
@@ -53754,16 +53754,16 @@
         <v>123</v>
       </c>
       <c r="H85" t="n">
-        <v>18.034075878417</v>
+        <v>20.6839300066572</v>
       </c>
       <c r="I85" t="n">
-        <v>1.1586835017992</v>
+        <v>1.29885850128977</v>
       </c>
       <c r="J85" t="n">
-        <v>15.7630979454098</v>
+        <v>18.1382141231156</v>
       </c>
       <c r="K85" t="n">
-        <v>20.3050538114242</v>
+        <v>23.2296458901988</v>
       </c>
     </row>
     <row r="86">
@@ -53789,16 +53789,16 @@
         <v>123</v>
       </c>
       <c r="H86" t="n">
-        <v>17.419713565788</v>
+        <v>20.1825656157879</v>
       </c>
       <c r="I86" t="n">
-        <v>1.00517256426552</v>
+        <v>0.817856827301475</v>
       </c>
       <c r="J86" t="n">
-        <v>15.4496115415798</v>
+        <v>18.5795956897668</v>
       </c>
       <c r="K86" t="n">
-        <v>19.3898155899962</v>
+        <v>21.785535541809</v>
       </c>
     </row>
     <row r="87">
@@ -53824,16 +53824,16 @@
         <v>123</v>
       </c>
       <c r="H87" t="n">
-        <v>19.7679186084903</v>
+        <v>22.1494018955389</v>
       </c>
       <c r="I87" t="n">
-        <v>1.83308725596263</v>
+        <v>2.11919958683883</v>
       </c>
       <c r="J87" t="n">
-        <v>16.1751336062842</v>
+        <v>17.9958470292827</v>
       </c>
       <c r="K87" t="n">
-        <v>23.3607036106964</v>
+        <v>26.3029567617952</v>
       </c>
     </row>
     <row r="88">
@@ -53859,16 +53859,16 @@
         <v>123</v>
       </c>
       <c r="H88" t="n">
-        <v>16.3341328973549</v>
+        <v>20.9677106688689</v>
       </c>
       <c r="I88" t="n">
-        <v>1.2735370865782</v>
+        <v>1.01630214695133</v>
       </c>
       <c r="J88" t="n">
-        <v>13.8380460746855</v>
+        <v>18.9757950634336</v>
       </c>
       <c r="K88" t="n">
-        <v>18.8302197200242</v>
+        <v>22.9596262743042</v>
       </c>
     </row>
     <row r="89">
@@ -53894,16 +53894,16 @@
         <v>123</v>
       </c>
       <c r="H89" t="n">
-        <v>15.5514500274957</v>
+        <v>19.6641979468253</v>
       </c>
       <c r="I89" t="n">
-        <v>1.22006848573659</v>
+        <v>1.06154164281077</v>
       </c>
       <c r="J89" t="n">
-        <v>13.1601597367796</v>
+        <v>17.5836145588267</v>
       </c>
       <c r="K89" t="n">
-        <v>17.9427403182117</v>
+        <v>21.7447813348239</v>
       </c>
     </row>
     <row r="90">
@@ -53929,16 +53929,16 @@
         <v>123</v>
       </c>
       <c r="H90" t="n">
-        <v>16.0792081673522</v>
+        <v>18.1474315765168</v>
       </c>
       <c r="I90" t="n">
-        <v>1.50355351575174</v>
+        <v>1.4850885138732</v>
       </c>
       <c r="J90" t="n">
-        <v>13.1322974276502</v>
+        <v>15.2367115754712</v>
       </c>
       <c r="K90" t="n">
-        <v>19.0261189070542</v>
+        <v>21.0581515775624</v>
       </c>
     </row>
     <row r="91">
@@ -53964,16 +53964,16 @@
         <v>123</v>
       </c>
       <c r="H91" t="n">
-        <v>12.7479974345549</v>
+        <v>14.7823904311112</v>
       </c>
       <c r="I91" t="n">
-        <v>1.24710493259627</v>
+        <v>1.14358867395914</v>
       </c>
       <c r="J91" t="n">
-        <v>10.3037166817239</v>
+        <v>12.5409978170234</v>
       </c>
       <c r="K91" t="n">
-        <v>15.1922781873858</v>
+        <v>17.023783045199</v>
       </c>
     </row>
     <row r="92">
@@ -53999,16 +53999,16 @@
         <v>123</v>
       </c>
       <c r="H92" t="n">
-        <v>12.5537698298229</v>
+        <v>14.6681616615242</v>
       </c>
       <c r="I92" t="n">
-        <v>1.08257747524393</v>
+        <v>1.13620713588451</v>
       </c>
       <c r="J92" t="n">
-        <v>10.4319569678705</v>
+        <v>12.4412365962132</v>
       </c>
       <c r="K92" t="n">
-        <v>14.6755826917753</v>
+        <v>16.8950867268353</v>
       </c>
     </row>
     <row r="93">
@@ -54034,16 +54034,16 @@
         <v>123</v>
       </c>
       <c r="H93" t="n">
-        <v>12.9249649478474</v>
+        <v>17.7692708280802</v>
       </c>
       <c r="I93" t="n">
-        <v>1.28352450347958</v>
+        <v>1.62446784561399</v>
       </c>
       <c r="J93" t="n">
-        <v>10.4093031477528</v>
+        <v>14.5853723566334</v>
       </c>
       <c r="K93" t="n">
-        <v>15.4406267479421</v>
+        <v>20.953169299527</v>
       </c>
     </row>
     <row r="94">
@@ -54069,16 +54069,16 @@
         <v>123</v>
       </c>
       <c r="H94" t="n">
-        <v>13.3750607727811</v>
+        <v>16.7531534684678</v>
       </c>
       <c r="I94" t="n">
-        <v>0.977916857028649</v>
+        <v>1.1028601261366</v>
       </c>
       <c r="J94" t="n">
-        <v>11.4583789531303</v>
+        <v>14.5915873412548</v>
       </c>
       <c r="K94" t="n">
-        <v>15.2917425924318</v>
+        <v>18.9147195956808</v>
       </c>
     </row>
     <row r="95">
@@ -54104,16 +54104,16 @@
         <v>123</v>
       </c>
       <c r="H95" t="n">
-        <v>12.5299692639799</v>
+        <v>15.2959077218692</v>
       </c>
       <c r="I95" t="n">
-        <v>1.15869966214491</v>
+        <v>1.25296213180201</v>
       </c>
       <c r="J95" t="n">
-        <v>10.2589596572771</v>
+        <v>12.8401470695447</v>
       </c>
       <c r="K95" t="n">
-        <v>14.8009788706826</v>
+        <v>17.7516683741937</v>
       </c>
     </row>
     <row r="96">
@@ -54139,16 +54139,16 @@
         <v>123</v>
       </c>
       <c r="H96" t="n">
-        <v>16.702280864656</v>
+        <v>18.8453712578073</v>
       </c>
       <c r="I96" t="n">
-        <v>1.94811675751371</v>
+        <v>1.9134299317409</v>
       </c>
       <c r="J96" t="n">
-        <v>12.8840421822502</v>
+        <v>15.0951175046542</v>
       </c>
       <c r="K96" t="n">
-        <v>20.5205195470618</v>
+        <v>22.5956250109604</v>
       </c>
     </row>
     <row r="97">
@@ -54174,16 +54174,16 @@
         <v>123</v>
       </c>
       <c r="H97" t="n">
-        <v>14.7898712347505</v>
+        <v>19.4717846532975</v>
       </c>
       <c r="I97" t="n">
-        <v>1.68563827185985</v>
+        <v>2.23645248644987</v>
       </c>
       <c r="J97" t="n">
-        <v>11.4860809309429</v>
+        <v>15.0884183267207</v>
       </c>
       <c r="K97" t="n">
-        <v>18.0936615385582</v>
+        <v>23.8551509798743</v>
       </c>
     </row>
     <row r="98">
@@ -54209,16 +54209,16 @@
         <v>123</v>
       </c>
       <c r="H98" t="n">
-        <v>13.8858774532726</v>
+        <v>15.8294006571876</v>
       </c>
       <c r="I98" t="n">
-        <v>1.76870068831549</v>
+        <v>1.63847568416183</v>
       </c>
       <c r="J98" t="n">
-        <v>10.419287804743</v>
+        <v>12.6180473266858</v>
       </c>
       <c r="K98" t="n">
-        <v>17.3524671018021</v>
+        <v>19.0407539876894</v>
       </c>
     </row>
     <row r="99">
@@ -54244,16 +54244,16 @@
         <v>123</v>
       </c>
       <c r="H99" t="n">
-        <v>11.9010757395742</v>
+        <v>14.5404138185686</v>
       </c>
       <c r="I99" t="n">
-        <v>1.14051497709933</v>
+        <v>1.05336864158108</v>
       </c>
       <c r="J99" t="n">
-        <v>9.66570746063103</v>
+        <v>12.4758492186258</v>
       </c>
       <c r="K99" t="n">
-        <v>14.1364440185175</v>
+        <v>16.6049784185114</v>
       </c>
     </row>
     <row r="100">
@@ -54279,16 +54279,16 @@
         <v>123</v>
       </c>
       <c r="H100" t="n">
-        <v>12.0126128005754</v>
+        <v>14.827270099981</v>
       </c>
       <c r="I100" t="n">
-        <v>1.15577378489399</v>
+        <v>1.12478501210503</v>
       </c>
       <c r="J100" t="n">
-        <v>9.74733780790766</v>
+        <v>12.6227319859047</v>
       </c>
       <c r="K100" t="n">
-        <v>14.2778877932432</v>
+        <v>17.0318082140573</v>
       </c>
     </row>
     <row r="101">
@@ -54314,16 +54314,16 @@
         <v>123</v>
       </c>
       <c r="H101" t="n">
-        <v>14.1090702343945</v>
+        <v>16.6770842099805</v>
       </c>
       <c r="I101" t="n">
-        <v>1.30972576071138</v>
+        <v>1.54675182886674</v>
       </c>
       <c r="J101" t="n">
-        <v>11.5420549137758</v>
+        <v>13.6455063323802</v>
       </c>
       <c r="K101" t="n">
-        <v>16.6760855550131</v>
+        <v>19.7086620875808</v>
       </c>
     </row>
     <row r="102">
@@ -54349,16 +54349,16 @@
         <v>123</v>
       </c>
       <c r="H102" t="n">
-        <v>12.3893598904628</v>
+        <v>14.0981928422961</v>
       </c>
       <c r="I102" t="n">
-        <v>1.46324743141373</v>
+        <v>1.30823665935154</v>
       </c>
       <c r="J102" t="n">
-        <v>9.52144762442119</v>
+        <v>11.534096106712</v>
       </c>
       <c r="K102" t="n">
-        <v>15.2572721565045</v>
+        <v>16.6622895778801</v>
       </c>
     </row>
     <row r="103">
@@ -54384,16 +54384,16 @@
         <v>123</v>
       </c>
       <c r="H103" t="n">
-        <v>12.3749444546743</v>
+        <v>15.101987330239</v>
       </c>
       <c r="I103" t="n">
-        <v>1.160582269385</v>
+        <v>1.02422901841028</v>
       </c>
       <c r="J103" t="n">
-        <v>10.1002450055839</v>
+        <v>13.094535342234</v>
       </c>
       <c r="K103" t="n">
-        <v>14.6496439037646</v>
+        <v>17.1094393182439</v>
       </c>
     </row>
     <row r="104">
@@ -54419,16 +54419,16 @@
         <v>123</v>
       </c>
       <c r="H104" t="n">
-        <v>11.5138344953529</v>
+        <v>13.5395973468682</v>
       </c>
       <c r="I104" t="n">
-        <v>1.05344600351159</v>
+        <v>1.32403910548687</v>
       </c>
       <c r="J104" t="n">
-        <v>9.44911826881255</v>
+        <v>10.9445283859913</v>
       </c>
       <c r="K104" t="n">
-        <v>13.5785507218933</v>
+        <v>16.1346663077451</v>
       </c>
     </row>
     <row r="105">
@@ -54454,16 +54454,16 @@
         <v>123</v>
       </c>
       <c r="H105" t="n">
-        <v>8.84056008334145</v>
+        <v>11.4783147530878</v>
       </c>
       <c r="I105" t="n">
-        <v>1.02576099115048</v>
+        <v>1.22758788578779</v>
       </c>
       <c r="J105" t="n">
-        <v>6.83010548394039</v>
+        <v>9.07228670908601</v>
       </c>
       <c r="K105" t="n">
-        <v>10.8510146827425</v>
+        <v>13.8843427970895</v>
       </c>
     </row>
     <row r="106">
@@ -54489,16 +54489,16 @@
         <v>123</v>
       </c>
       <c r="H106" t="n">
-        <v>12.2570624978087</v>
+        <v>15.9440698951515</v>
       </c>
       <c r="I106" t="n">
-        <v>0.988079881777304</v>
+        <v>1.10825568678332</v>
       </c>
       <c r="J106" t="n">
-        <v>10.3204615156766</v>
+        <v>13.7719286633945</v>
       </c>
       <c r="K106" t="n">
-        <v>14.1936634799408</v>
+        <v>18.1162111269086</v>
       </c>
     </row>
     <row r="107">
@@ -54524,16 +54524,16 @@
         <v>123</v>
       </c>
       <c r="H107" t="n">
-        <v>13.9309189077611</v>
+        <v>16.6953162648919</v>
       </c>
       <c r="I107" t="n">
-        <v>1.18340987285027</v>
+        <v>1.36302098043376</v>
       </c>
       <c r="J107" t="n">
-        <v>11.6114781780255</v>
+        <v>14.0238442330692</v>
       </c>
       <c r="K107" t="n">
-        <v>16.2503596374968</v>
+        <v>19.3667882967145</v>
       </c>
     </row>
     <row r="108">
@@ -54559,16 +54559,16 @@
         <v>123</v>
       </c>
       <c r="H108" t="n">
-        <v>13.9681955955813</v>
+        <v>17.6642094365623</v>
       </c>
       <c r="I108" t="n">
-        <v>0.804803520352405</v>
+        <v>0.919674260280088</v>
       </c>
       <c r="J108" t="n">
-        <v>12.3908096810595</v>
+        <v>15.8616810089048</v>
       </c>
       <c r="K108" t="n">
-        <v>15.545581510103</v>
+        <v>19.4667378642198</v>
       </c>
     </row>
     <row r="109">
@@ -54594,16 +54594,16 @@
         <v>123</v>
       </c>
       <c r="H109" t="n">
-        <v>12.1170502211997</v>
+        <v>16.2587827262063</v>
       </c>
       <c r="I109" t="n">
-        <v>1.32221463349369</v>
+        <v>1.45002408360645</v>
       </c>
       <c r="J109" t="n">
-        <v>9.5255571597202</v>
+        <v>13.4167877456219</v>
       </c>
       <c r="K109" t="n">
-        <v>14.7085432826791</v>
+        <v>19.1007777067906</v>
       </c>
     </row>
   </sheetData>
